--- a/lyy/收入计算表.xlsx
+++ b/lyy/收入计算表.xlsx
@@ -1,178 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\py\lyy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="8355"/>
+    <workbookView windowWidth="27945" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t>案件数</t>
   </si>
   <si>
-    <t>案件数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>案件金额（万元）</t>
+  </si>
+  <si>
+    <t>案件难度系数</t>
+  </si>
+  <si>
+    <t>其他工作强度</t>
+  </si>
+  <si>
+    <t>金额收入部分</t>
+  </si>
+  <si>
+    <t>件数收入部分(对数）</t>
+  </si>
+  <si>
+    <t>件数收入部分(指数）</t>
+  </si>
+  <si>
+    <t>其他收入部分</t>
+  </si>
+  <si>
+    <t>合计(按对数）</t>
+  </si>
+  <si>
+    <t>合计(按指数）</t>
+  </si>
+  <si>
+    <t>设想收入</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>tt</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>指数</t>
+  </si>
+  <si>
+    <t>件数（对数）</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>最高/最低</t>
+  </si>
+  <si>
+    <t>件数（指数）</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>金额(10万）</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
   <si>
     <t>案件金额</t>
   </si>
   <si>
-    <t>nn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>测算表</t>
   </si>
   <si>
-    <t>mm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>需要输入的列</t>
   </si>
   <si>
-    <t>金额(10万）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>公式一
+（件数按对数计算）</t>
   </si>
   <si>
-    <t>最高/最低</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>案件数(N)</t>
   </si>
   <si>
-    <t>tt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>案件金额（万元）(M)</t>
   </si>
   <si>
-    <t>设想收入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>其他工作强度(T)</t>
   </si>
   <si>
-    <t>金额收入部分</t>
+    <t>公式二
+（件数按指数计算）</t>
   </si>
   <si>
-    <t>金额收入部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>参数表</t>
   </si>
   <si>
-    <t>其他收入部分</t>
+    <t>c</t>
   </si>
   <si>
-    <t>其他收入部分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>可调整的参数</t>
   </si>
   <si>
-    <t>cc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>d</t>
   </si>
   <si>
-    <t>其他</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>件数（按对数计算）</t>
   </si>
   <si>
-    <t>件数（对数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>最高件数/最低件数收入比</t>
   </si>
   <si>
-    <t>件数（指数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>y</t>
   </si>
   <si>
-    <t>指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>件数（按指数计算）</t>
   </si>
   <si>
-    <t>件数收入部分(指数）</t>
+    <t>指数q</t>
   </si>
   <si>
-    <t>件数收入部分(指数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>件数收入部分(对数）</t>
-  </si>
-  <si>
-    <t>件数收入部分(对数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计(按对数）</t>
-  </si>
-  <si>
-    <t>合计(按对数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计(按指数）</t>
-  </si>
-  <si>
-    <t>合计(按指数）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件难度系数</t>
-  </si>
-  <si>
-    <t>案件难度系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他工作强度</t>
-  </si>
-  <si>
-    <t>其他工作强度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案件金额（万元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -181,15 +190,37 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.25"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -198,17 +229,188 @@
       <sz val="11"/>
       <color rgb="FFC00000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.25"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -218,7 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -230,12 +438,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -245,89 +639,1797 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3746500" cy="265430"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10451465" y="804545"/>
+              <a:ext cx="3746500" cy="265430"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10451465" y="804545"/>
+              <a:ext cx="3746500" cy="265430"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3734435" cy="328295"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10446385" y="3048000"/>
+              <a:ext cx="3734435" cy="328295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑞</m:t>
+                        </m:r>
+                      </m:deg>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10446385" y="3048000"/>
+              <a:ext cx="3734435" cy="328295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6" descr="对数函数和指数函数"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="8836025"/>
+          <a:ext cx="6708140" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -373,7 +2475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -408,7 +2510,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -582,334 +2684,329 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="17.125" customWidth="1"/>
     <col min="9" max="9" width="18.5" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    <row r="2" ht="18" customHeight="1" spans="3:16">
+      <c r="C2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C3" s="3">
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="3:16">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="34">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
-        <f>$C$24*LN(D3+$C$25)</f>
-        <v>2208.5843671448984</v>
-      </c>
-      <c r="H3" s="5">
-        <f>$C$20*LN(C3+$C$21)</f>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:G8" si="0">$C$24*LN(D3+$C$25)</f>
+        <v>2208.5843671449</v>
+      </c>
+      <c r="H3" s="19">
+        <f t="shared" ref="H3:H8" si="1">$C$20*LN(C3+$C$21)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
-        <f>$O$20*POWER(C3,$O$19)</f>
+      <c r="I3" s="37">
+        <f t="shared" ref="I3:I8" si="2">$O$20*POWER(C3,$O$19)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <f>LN(F3)*$C$16+$C$17</f>
-        <v>668.38068805915509</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="19">
+        <f t="shared" ref="J3:J8" si="3">LN(F3)*$C$16+$C$17</f>
+        <v>668.380688059155</v>
+      </c>
+      <c r="K3" s="20">
         <f>SUM(G3,H3,J3)</f>
-        <v>2876.9650552040534</v>
-      </c>
-      <c r="L3" s="8">
+        <v>2876.96505520405</v>
+      </c>
+      <c r="L3" s="38">
         <f>SUM(G3,I3,J3)</f>
-        <v>2876.9650552040534</v>
+        <v>2876.96505520405</v>
       </c>
       <c r="P3">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3">
+    <row r="4" ht="18" customHeight="1" spans="3:16">
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
         <v>400</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <f>$C$24*LN(D4+$C$25)</f>
-        <v>2590.7889451558731</v>
-      </c>
-      <c r="H4" s="5">
-        <f>$C$20*LN(C4+$C$21)</f>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="I4" s="6">
-        <f>$O$20*POWER(C4,$O$19)</f>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="0"/>
+        <v>2590.78894515587</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="1"/>
+        <v>693.147180559945</v>
+      </c>
+      <c r="I4" s="37">
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="J4" s="5">
-        <f>LN(F4)*$C$16+$C$17</f>
+      <c r="J4" s="19">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K4" s="7">
-        <f t="shared" ref="K4:K8" si="0">SUM(G4,H4,J4)</f>
-        <v>3383.9361257158184</v>
-      </c>
-      <c r="L4" s="8">
-        <f t="shared" ref="L4:L8" si="1">SUM(G4,I4,J4)</f>
-        <v>3790.7889451558731</v>
+      <c r="K4" s="20">
+        <f t="shared" ref="K4:K8" si="4">SUM(G4,H4,J4)</f>
+        <v>3383.93612571582</v>
+      </c>
+      <c r="L4" s="38">
+        <f t="shared" ref="L4:L8" si="5">SUM(G4,I4,J4)</f>
+        <v>3790.78894515587</v>
       </c>
       <c r="P4">
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="3">
+    <row r="5" ht="18" customHeight="1" spans="3:16">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>200</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <f>$C$24*LN(D5+$C$25)</f>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="H5" s="5">
-        <f>$C$20*LN(C5+$C$21)</f>
-        <v>1098.6122886681098</v>
-      </c>
-      <c r="I5" s="6">
-        <f>$O$20*POWER(C5,$O$19)</f>
-        <v>1385.9131548843604</v>
-      </c>
-      <c r="J5" s="5">
-        <f>LN(F5)*$C$16+$C$17</f>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="0"/>
+        <v>2443.69903310575</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="1"/>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="I5" s="37">
+        <f t="shared" si="2"/>
+        <v>1385.91315488436</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>3642.3113217738564</v>
-      </c>
-      <c r="L5" s="8">
-        <f t="shared" si="1"/>
-        <v>3929.6121879901066</v>
+      <c r="K5" s="20">
+        <f t="shared" si="4"/>
+        <v>3642.31132177386</v>
+      </c>
+      <c r="L5" s="38">
+        <f t="shared" si="5"/>
+        <v>3929.61218799011</v>
       </c>
       <c r="P5">
         <v>4200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C6" s="3">
+    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>1200</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <f>$C$24*LN(D6+$C$25)</f>
-        <v>2911.7275341658478</v>
-      </c>
-      <c r="H6" s="10">
-        <f>$C$20*LN(C6+$C$21)</f>
-        <v>1386.2943611198905</v>
-      </c>
-      <c r="I6" s="11">
-        <f>$O$20*POWER(C6,$O$19)</f>
-        <v>1586.4745273381491</v>
-      </c>
-      <c r="J6" s="10">
-        <f>LN(F6)*$C$16+$C$17</f>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>2911.72753416585</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" si="1"/>
+        <v>1386.29436111989</v>
+      </c>
+      <c r="I6" s="39">
+        <f t="shared" si="2"/>
+        <v>1586.47452733815</v>
+      </c>
+      <c r="J6" s="21">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="20">
+        <f t="shared" si="4"/>
+        <v>4398.02189528574</v>
+      </c>
+      <c r="L6" s="38">
+        <f t="shared" si="5"/>
+        <v>4598.202061504</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="19">
         <f t="shared" si="0"/>
-        <v>4398.0218952857385</v>
-      </c>
-      <c r="L6" s="8">
+        <v>2214.93370680741</v>
+      </c>
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
-        <v>4598.2020615039964</v>
-      </c>
-      <c r="P6" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="9">
-        <v>3</v>
-      </c>
-      <c r="G7" s="5">
-        <f>$C$24*LN(D7+$C$25)</f>
-        <v>2214.9337068074146</v>
-      </c>
-      <c r="H7" s="5">
-        <f>$C$20*LN(C7+$C$21)</f>
-        <v>1609.4379124341003</v>
-      </c>
-      <c r="I7" s="6">
-        <f>$O$20*POWER(C7,$O$19)</f>
-        <v>1746.1411571650192</v>
-      </c>
-      <c r="J7" s="5">
-        <f>LN(F7)*$C$16+$C$17</f>
-        <v>1000.8620767078501</v>
-      </c>
-      <c r="K7" s="7">
+        <v>1609.4379124341</v>
+      </c>
+      <c r="I7" s="37">
+        <f t="shared" si="2"/>
+        <v>1746.14115716502</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="3"/>
+        <v>1000.86207670785</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="4"/>
+        <v>4825.23369594937</v>
+      </c>
+      <c r="L7" s="38">
+        <f t="shared" si="5"/>
+        <v>4961.93694068028</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="3:12">
+      <c r="C8" s="7">
+        <v>5</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="35">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>4825.233695949365</v>
-      </c>
-      <c r="L7" s="8">
+        <v>3234.56411012951</v>
+      </c>
+      <c r="H8" s="19">
         <f t="shared" si="1"/>
-        <v>4961.9369406802834</v>
-      </c>
-      <c r="P7" s="2">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="3">
-        <v>5</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <f>$C$24*LN(D8+$C$25)</f>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="H8" s="5">
-        <f>$C$20*LN(C8+$C$21)</f>
-        <v>1791.759469228055</v>
-      </c>
-      <c r="I8" s="6">
-        <f>$O$20*POWER(C8,$O$19)</f>
-        <v>1880.9735413443666</v>
-      </c>
-      <c r="J8" s="5">
-        <f>LN(F8)*$C$16+$C$17</f>
+        <v>1791.75946922805</v>
+      </c>
+      <c r="I8" s="37">
+        <f t="shared" si="2"/>
+        <v>1880.97354134437</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K8" s="7">
-        <f t="shared" si="0"/>
-        <v>5126.3235793575677</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" si="1"/>
-        <v>5215.5376514738791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="K9" s="13">
+      <c r="K8" s="20">
+        <f t="shared" si="4"/>
+        <v>5126.32357935757</v>
+      </c>
+      <c r="L8" s="38">
+        <f t="shared" si="5"/>
+        <v>5215.53765147388</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12">
+      <c r="K9" s="29">
         <f>SUM(K4:K8)</f>
-        <v>21375.826618082348</v>
-      </c>
-      <c r="L9" s="13">
+        <v>21375.8266180823</v>
+      </c>
+      <c r="L9" s="29">
         <f>SUM(L4:L8)</f>
-        <v>22496.077786804137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>22496.0777868041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
+        <v>12</v>
+      </c>
+      <c r="C16" s="33">
         <v>820</v>
       </c>
       <c r="D16">
@@ -922,11 +3019,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="33">
         <v>100</v>
       </c>
       <c r="D17">
@@ -934,31 +3031,31 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:F17" si="2">$C$16*LN(E16)+100</f>
-        <v>668.38068805915509</v>
+        <f t="shared" ref="E17:F17" si="6">$C$16*LN(E16)+100</f>
+        <v>668.380688059155</v>
       </c>
       <c r="F17">
-        <f t="shared" si="2"/>
-        <v>1000.8620767078501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>1000.86207670785</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15">
       <c r="N19" t="s">
-        <v>17</v>
-      </c>
-      <c r="O19" s="12">
+        <v>14</v>
+      </c>
+      <c r="O19" s="40">
         <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="33">
         <v>1000</v>
       </c>
       <c r="D20">
@@ -977,15 +3074,15 @@
         <v>5</v>
       </c>
       <c r="J20" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="M20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
         <v>16</v>
       </c>
-      <c r="N20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="O20" s="33">
         <v>1100</v>
       </c>
       <c r="P20">
@@ -1004,44 +3101,44 @@
         <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
       <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="33">
         <v>1</v>
       </c>
       <c r="D21">
         <f>LN(D20+$C$21)*$C$20</f>
-        <v>693.14718055994524</v>
+        <v>693.147180559945</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:H21" si="3">LN(E20+$C$21)*$C$20</f>
-        <v>1098.6122886681098</v>
+        <f t="shared" ref="E21:H21" si="7">LN(E20+$C$21)*$C$20</f>
+        <v>1098.61228866811</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
-        <v>1386.2943611198905</v>
+        <f t="shared" si="7"/>
+        <v>1386.29436111989</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
-        <v>1609.4379124341003</v>
+        <f t="shared" si="7"/>
+        <v>1609.4379124341</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
-        <v>1791.759469228055</v>
+        <f t="shared" si="7"/>
+        <v>1791.75946922805</v>
       </c>
       <c r="J21">
         <f>H21/D21</f>
-        <v>2.5849625007211565</v>
+        <v>2.58496250072116</v>
       </c>
       <c r="N21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="1">
+        <v>19</v>
+      </c>
+      <c r="O21" s="33">
         <v>1</v>
       </c>
       <c r="P21">
@@ -1050,33 +3147,33 @@
       </c>
       <c r="Q21">
         <f>POWER(Q20,$O$19)*$O$20</f>
-        <v>1385.9131548843604</v>
+        <v>1385.91315488436</v>
       </c>
       <c r="R21">
-        <f t="shared" ref="R21:T21" si="4">POWER(R20,$O$19)*$O$20</f>
-        <v>1586.4745273381491</v>
+        <f t="shared" ref="R21:T21" si="8">POWER(R20,$O$19)*$O$20</f>
+        <v>1586.47452733815</v>
       </c>
       <c r="S21">
-        <f t="shared" si="4"/>
-        <v>1746.1411571650192</v>
+        <f t="shared" si="8"/>
+        <v>1746.14115716502</v>
       </c>
       <c r="T21">
-        <f t="shared" si="4"/>
-        <v>1880.9735413443666</v>
+        <f t="shared" si="8"/>
+        <v>1880.97354134437</v>
       </c>
       <c r="V21">
         <f>T21/P21</f>
-        <v>1.7099759466766968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>1.7099759466767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="33">
         <v>400</v>
       </c>
       <c r="D24">
@@ -1116,123 +3213,124 @@
         <v>3000</v>
       </c>
       <c r="R24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
       <c r="B25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="33">
         <v>250</v>
       </c>
       <c r="D25">
         <f>LN(D24+$C$25)*$C$24</f>
-        <v>2224.2726524062109</v>
+        <v>2224.27265240621</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25:O25" si="5">LN(E24+$C$25)*$C$24</f>
-        <v>2239.3687835993501</v>
+        <f t="shared" ref="E25:O25" si="9">LN(E24+$C$25)*$C$24</f>
+        <v>2239.36878359935</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
-        <v>2253.9158412676998</v>
+        <f t="shared" si="9"/>
+        <v>2253.9158412677</v>
       </c>
       <c r="G25">
-        <f t="shared" si="5"/>
-        <v>2281.5129898624805</v>
+        <f t="shared" si="9"/>
+        <v>2281.51298986248</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
-        <v>2343.1732617933835</v>
+        <f t="shared" si="9"/>
+        <v>2343.17326179338</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
-        <v>2443.6990331057464</v>
+        <f t="shared" si="9"/>
+        <v>2443.69903310575</v>
       </c>
       <c r="J25">
-        <f t="shared" si="5"/>
-        <v>2648.0292826121422</v>
+        <f t="shared" si="9"/>
+        <v>2648.02928261214</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
-        <v>2698.0945397937448</v>
+        <f t="shared" si="9"/>
+        <v>2698.09453979374</v>
       </c>
       <c r="L25">
-        <f t="shared" si="5"/>
-        <v>2782.6181772606278</v>
+        <f t="shared" si="9"/>
+        <v>2782.61817726063</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
-        <v>2852.3595321185385</v>
+        <f t="shared" si="9"/>
+        <v>2852.35953211854</v>
       </c>
       <c r="N25">
-        <f t="shared" si="5"/>
-        <v>3087.4741980793865</v>
+        <f t="shared" si="9"/>
+        <v>3087.47419807939</v>
       </c>
       <c r="O25">
-        <f t="shared" si="5"/>
-        <v>3234.5641101295128</v>
+        <f t="shared" si="9"/>
+        <v>3234.56411012951</v>
       </c>
       <c r="R25">
         <f>O25/D25</f>
-        <v>1.4542120574248718</v>
+        <v>1.45421205742487</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="10" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1246,7 +3344,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2208.5843671448984</v>
+        <v>2208.5843671449</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1255,16 +3353,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>668.38068805915509</v>
+        <v>668.380688059155</v>
       </c>
       <c r="I2">
-        <v>2876.9650552040534</v>
+        <v>2876.96505520405</v>
       </c>
       <c r="J2">
-        <v>2876.9650552040534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2876.96505520405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1278,10 +3376,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2343.1732617933835</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F3">
-        <v>693.14718055994524</v>
+        <v>693.147180559945</v>
       </c>
       <c r="G3">
         <v>1100</v>
@@ -1290,13 +3388,13 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>3136.3204423533289</v>
+        <v>3136.32044235333</v>
       </c>
       <c r="J3">
-        <v>3543.1732617933835</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3543.17326179338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1310,25 +3408,25 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2343.1732617933835</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F4">
-        <v>1098.6122886681098</v>
+        <v>1098.61228866811</v>
       </c>
       <c r="G4">
-        <v>1385.9131548843604</v>
+        <v>1385.91315488436</v>
       </c>
       <c r="H4">
         <v>100</v>
       </c>
       <c r="I4">
-        <v>3541.7855504614936</v>
+        <v>3541.78555046149</v>
       </c>
       <c r="J4">
-        <v>3829.0864166777437</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3829.08641667774</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1342,25 +3440,25 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2343.1732617933835</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F5">
-        <v>1386.2943611198905</v>
+        <v>1386.29436111989</v>
       </c>
       <c r="G5">
-        <v>1586.4745273381491</v>
+        <v>1586.47452733815</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>3829.4676229132738</v>
+        <v>3829.46762291327</v>
       </c>
       <c r="J5">
-        <v>4029.6477891315326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4029.64778913153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1374,25 +3472,25 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2343.1732617933835</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F6">
-        <v>1609.4379124341003</v>
+        <v>1609.4379124341</v>
       </c>
       <c r="G6">
-        <v>1746.1411571650192</v>
+        <v>1746.14115716502</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>4052.6111742274838</v>
+        <v>4052.61117422748</v>
       </c>
       <c r="J6">
-        <v>4189.3144189584027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4189.3144189584</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1406,65 +3504,65 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2343.1732617933835</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F7">
-        <v>1791.759469228055</v>
+        <v>1791.75946922805</v>
       </c>
       <c r="G7">
-        <v>1880.9735413443666</v>
+        <v>1880.97354134437</v>
       </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7">
-        <v>4234.9327310214385</v>
+        <v>4234.93273102144</v>
       </c>
       <c r="J7">
-        <v>4324.1468031377499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4324.14680313775</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10">
       <c r="I8">
-        <v>21672.082576181074</v>
+        <v>21672.0825761811</v>
       </c>
       <c r="J8">
-        <v>22792.333744902862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>22792.3337449029</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1478,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2208.5843671448984</v>
+        <v>2208.5843671449</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1487,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>668.38068805915509</v>
+        <v>668.380688059155</v>
       </c>
       <c r="I11">
-        <v>2876.9650552040534</v>
+        <v>2876.96505520405</v>
       </c>
       <c r="J11">
-        <v>2876.9650552040534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2876.96505520405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1510,10 +3608,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>3234.5641101295128</v>
+        <v>3234.56411012951</v>
       </c>
       <c r="F12">
-        <v>693.14718055994524</v>
+        <v>693.147180559945</v>
       </c>
       <c r="G12">
         <v>1100</v>
@@ -1522,13 +3620,13 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>4027.7112906894581</v>
+        <v>4027.71129068946</v>
       </c>
       <c r="J12">
-        <v>4434.5641101295132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4434.56411012951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1542,25 +3640,25 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>3234.5641101295128</v>
+        <v>3234.56411012951</v>
       </c>
       <c r="F13">
-        <v>1098.6122886681098</v>
+        <v>1098.61228866811</v>
       </c>
       <c r="G13">
-        <v>1385.9131548843604</v>
+        <v>1385.91315488436</v>
       </c>
       <c r="H13">
         <v>100</v>
       </c>
       <c r="I13">
-        <v>4433.1763987976228</v>
+        <v>4433.17639879762</v>
       </c>
       <c r="J13">
-        <v>4720.477265013873</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4720.47726501387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1574,25 +3672,25 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>3234.5641101295128</v>
+        <v>3234.56411012951</v>
       </c>
       <c r="F14">
-        <v>1386.2943611198905</v>
+        <v>1386.29436111989</v>
       </c>
       <c r="G14">
-        <v>1586.4745273381491</v>
+        <v>1586.47452733815</v>
       </c>
       <c r="H14">
         <v>100</v>
       </c>
       <c r="I14">
-        <v>4720.858471249403</v>
+        <v>4720.8584712494</v>
       </c>
       <c r="J14">
-        <v>4921.0386374676618</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4921.03863746766</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>4</v>
       </c>
@@ -1606,25 +3704,25 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>3234.5641101295128</v>
+        <v>3234.56411012951</v>
       </c>
       <c r="F15">
-        <v>1609.4379124341003</v>
+        <v>1609.4379124341</v>
       </c>
       <c r="G15">
-        <v>1746.1411571650192</v>
+        <v>1746.14115716502</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15">
-        <v>4944.0020225636126</v>
+        <v>4944.00202256361</v>
       </c>
       <c r="J15">
-        <v>5080.705267294532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5080.70526729453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>5</v>
       </c>
@@ -1638,34 +3736,892 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>3234.5641101295128</v>
+        <v>3234.56411012951</v>
       </c>
       <c r="F16">
-        <v>1791.759469228055</v>
+        <v>1791.75946922805</v>
       </c>
       <c r="G16">
-        <v>1880.9735413443666</v>
+        <v>1880.97354134437</v>
       </c>
       <c r="H16">
         <v>100</v>
       </c>
       <c r="I16">
-        <v>5126.3235793575677</v>
+        <v>5126.32357935757</v>
       </c>
       <c r="J16">
-        <v>5215.5376514738791</v>
-      </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.2">
+        <v>5215.53765147388</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
       <c r="I17">
-        <v>26129.036817861714</v>
+        <v>26129.0368178617</v>
       </c>
       <c r="J17">
-        <v>27249.287986583513</v>
+        <v>27249.2879865835</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.6833333333333" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="16.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="15.325" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="9.01666666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.7" customWidth="1"/>
+    <col min="12" max="12" width="11.1916666666667" customWidth="1"/>
+    <col min="13" max="13" width="10.1083333333333" customWidth="1"/>
+    <col min="14" max="14" width="10.7583333333333" customWidth="1"/>
+    <col min="17" max="17" width="12.625"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="2:8">
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="1" ht="15" customHeight="1" spans="10:11">
+      <c r="J2" s="26"/>
+      <c r="K2" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>400</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <f>$C$35*LN(C4+$C$36)</f>
+        <v>2590.78894515587</v>
+      </c>
+      <c r="F4" s="19">
+        <f>$C$26*LN(B4+$C$27)</f>
+        <v>693.147180559945</v>
+      </c>
+      <c r="G4" s="19">
+        <f>LN(D4)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="20">
+        <f>SUM(E4,F4,G4)</f>
+        <v>3383.93612571582</v>
+      </c>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>200</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <f>$C$35*LN(C5+$C$36)</f>
+        <v>2443.69903310575</v>
+      </c>
+      <c r="F5" s="19">
+        <f>$C$26*LN(B5+$C$27)</f>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="G5" s="19">
+        <f>LN(D5)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="20">
+        <f>SUM(E5,F5,G5)</f>
+        <v>3642.31132177386</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D6" s="8">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <f>$C$35*LN(C6+$C$36)</f>
+        <v>2911.72753416585</v>
+      </c>
+      <c r="F6" s="21">
+        <f>$C$26*LN(B6+$C$27)</f>
+        <v>1386.29436111989</v>
+      </c>
+      <c r="G6" s="21">
+        <f>LN(D6)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H6" s="20">
+        <f>SUM(E6,F6,G6)</f>
+        <v>4398.02189528574</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f>"a="&amp;C35</f>
+        <v>a=400</v>
+      </c>
+      <c r="K6" s="1" t="str">
+        <f>"b="&amp;C26</f>
+        <v>b=1000</v>
+      </c>
+      <c r="L6" s="1" t="str">
+        <f>"c="&amp;C22</f>
+        <v>c=820</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <f>"d="&amp;C23</f>
+        <v>d=100</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <f>$C$35*LN(C7+$C$36)</f>
+        <v>2214.93370680741</v>
+      </c>
+      <c r="F7" s="19">
+        <f>$C$26*LN(B7+$C$27)</f>
+        <v>1609.4379124341</v>
+      </c>
+      <c r="G7" s="19">
+        <f>LN(D7)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="20">
+        <f>SUM(E7,F7,G7)</f>
+        <v>3924.37161924151</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>"x="&amp;C36</f>
+        <v>x=250</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>"y="&amp;C27</f>
+        <v>y=1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <f>$C$35*LN(C8+$C$36)</f>
+        <v>3234.56411012951</v>
+      </c>
+      <c r="F8" s="19">
+        <f>$C$26*LN(B8+$C$27)</f>
+        <v>1791.75946922805</v>
+      </c>
+      <c r="G8" s="19">
+        <f>LN(D8)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="20">
+        <f>SUM(E8,F8,G8)</f>
+        <v>5126.32357935757</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="20" customHeight="1" spans="5:10">
+      <c r="E9" s="22">
+        <f>SUM(E4:E8)</f>
+        <v>13395.7133293644</v>
+      </c>
+      <c r="F9" s="22">
+        <f>SUM(F4:F8)</f>
+        <v>6579.2512120101</v>
+      </c>
+      <c r="G9" s="22">
+        <f>SUM(G4:G8)</f>
+        <v>500</v>
+      </c>
+      <c r="H9" s="22">
+        <f>SUM(H4:H8)</f>
+        <v>20474.9645413745</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+    </row>
+    <row r="10" customFormat="1" spans="9:10">
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+      <c r="C13" s="7">
+        <v>400</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" ref="E11:E17" si="0">$C$35*LN(C13+$C$36)</f>
+        <v>2590.78894515587</v>
+      </c>
+      <c r="F13" s="25">
+        <f>$C$31*POWER((B13+$C$32),$C$30)</f>
+        <v>1100</v>
+      </c>
+      <c r="G13" s="19">
+        <f t="shared" ref="G12:G17" si="1">LN(D13)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H13" s="20">
+        <f>SUM(E13,F13,G13)</f>
+        <v>3790.78894515587</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>200</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>2443.69903310575</v>
+      </c>
+      <c r="F14" s="25">
+        <f>$C$31*POWER((B14+$C$32),$C$30)</f>
+        <v>1385.91315488436</v>
+      </c>
+      <c r="G14" s="19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="20">
+        <f>SUM(E14,F14,G14)</f>
+        <v>3929.61218799011</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="21">
+        <f t="shared" si="0"/>
+        <v>2911.72753416585</v>
+      </c>
+      <c r="F15" s="25">
+        <f>$C$31*POWER((B15+$C$32),$C$30)</f>
+        <v>1586.47452733815</v>
+      </c>
+      <c r="G15" s="21">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="20">
+        <f>SUM(E15,F15,G15)</f>
+        <v>4598.202061504</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>2214.93370680741</v>
+      </c>
+      <c r="F16" s="25">
+        <f>$C$31*POWER((B16+$C$32),$C$30)</f>
+        <v>1746.14115716502</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="20">
+        <f>SUM(E16,F16,G16)</f>
+        <v>4061.07486397243</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>"a="&amp;C35</f>
+        <v>a=400</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>"b="&amp;C31</f>
+        <v>b=1100</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f>"c="&amp;C22</f>
+        <v>c=820</v>
+      </c>
+      <c r="M16" s="1" t="str">
+        <f>"d="&amp;C23</f>
+        <v>d=100</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>3234.56411012951</v>
+      </c>
+      <c r="F17" s="25">
+        <f>$C$31*POWER((B17+$C$32),$C$30)</f>
+        <v>1880.97354134437</v>
+      </c>
+      <c r="G17" s="19">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="20">
+        <f>SUM(E17,F17,G17)</f>
+        <v>5215.53765147388</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>"x="&amp;C36</f>
+        <v>x=250</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>"y="&amp;C32</f>
+        <v>y=0</v>
+      </c>
+      <c r="L17" s="1" t="str">
+        <f>"q="&amp;1/C30</f>
+        <v>q=3</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" spans="5:8">
+      <c r="E18" s="22">
+        <f>SUM(E13:E17)</f>
+        <v>13395.7133293644</v>
+      </c>
+      <c r="F18" s="22">
+        <f>SUM(F13:F17)</f>
+        <v>7699.5023807319</v>
+      </c>
+      <c r="G18" s="22">
+        <f>SUM(G13:G17)</f>
+        <v>500</v>
+      </c>
+      <c r="H18" s="22">
+        <f>SUM(H13:H17)</f>
+        <v>21595.2157100963</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1"/>
+    <row r="20" customFormat="1"/>
+    <row r="21" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:11">
+      <c r="A22" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="14">
+        <v>820</v>
+      </c>
+      <c r="D22" s="13">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>3</v>
+      </c>
+      <c r="J22" s="14"/>
+      <c r="K22" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="14">
+        <v>100</v>
+      </c>
+      <c r="D23" s="15">
+        <f>$C$22*LN(D22)+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="15">
+        <f>$C$22*LN(E22)+$C$23</f>
+        <v>668.380688059155</v>
+      </c>
+      <c r="F23" s="15">
+        <f>$C$22*LN(F22)+$C$23</f>
+        <v>1000.86207670785</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" spans="1:10">
+      <c r="A26" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2</v>
+      </c>
+      <c r="F26" s="13">
+        <v>3</v>
+      </c>
+      <c r="G26" s="13">
+        <v>4</v>
+      </c>
+      <c r="H26" s="13">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="14">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15">
+        <f>LN(D26+$C$27)*$C$26</f>
+        <v>693.147180559945</v>
+      </c>
+      <c r="E27" s="15">
+        <f>LN(E26+$C$27)*$C$26</f>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="F27" s="15">
+        <f>LN(F26+$C$27)*$C$26</f>
+        <v>1386.29436111989</v>
+      </c>
+      <c r="G27" s="15">
+        <f>LN(G26+$C$27)*$C$26</f>
+        <v>1609.4379124341</v>
+      </c>
+      <c r="H27" s="15">
+        <f>LN(H26+$C$27)*$C$26</f>
+        <v>1791.75946922805</v>
+      </c>
+      <c r="J27" s="31">
+        <f>H27/D27</f>
+        <v>2.58496250072116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1" spans="1:8">
+      <c r="A30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="16">
+        <f>1/3</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" customFormat="1" spans="1:10">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="14">
+        <v>1100</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2</v>
+      </c>
+      <c r="F31" s="13">
+        <v>3</v>
+      </c>
+      <c r="G31" s="13">
+        <v>4</v>
+      </c>
+      <c r="H31" s="13">
+        <v>5</v>
+      </c>
+      <c r="I31"/>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" spans="1:10">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="14">
+        <v>0</v>
+      </c>
+      <c r="D32" s="15">
+        <f t="shared" ref="D32:H32" si="2">POWER(D31,$C$30)*$C$31</f>
+        <v>1100</v>
+      </c>
+      <c r="E32" s="15">
+        <f t="shared" si="2"/>
+        <v>1385.91315488436</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="2"/>
+        <v>1586.47452733815</v>
+      </c>
+      <c r="G32" s="15">
+        <f t="shared" si="2"/>
+        <v>1746.14115716502</v>
+      </c>
+      <c r="H32" s="15">
+        <f t="shared" si="2"/>
+        <v>1880.97354134437</v>
+      </c>
+      <c r="J32" s="31">
+        <f>H32/D32</f>
+        <v>1.7099759466767</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" spans="10:10">
+      <c r="J33" s="32"/>
+    </row>
+    <row r="34" customFormat="1" spans="10:10">
+      <c r="J34" s="32"/>
+    </row>
+    <row r="35" customFormat="1" spans="1:10">
+      <c r="A35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="14">
+        <v>400</v>
+      </c>
+      <c r="D35" s="13">
+        <v>10</v>
+      </c>
+      <c r="E35" s="13">
+        <v>20</v>
+      </c>
+      <c r="F35" s="13">
+        <v>30</v>
+      </c>
+      <c r="G35" s="13">
+        <v>50</v>
+      </c>
+      <c r="H35" s="13">
+        <v>100</v>
+      </c>
+      <c r="J35" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:10">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="14">
+        <v>250</v>
+      </c>
+      <c r="D36" s="15">
+        <f>LN(D35+$C$36)*$C$35</f>
+        <v>2224.27265240621</v>
+      </c>
+      <c r="E36" s="15">
+        <f>LN(E35+$C$36)*$C$35</f>
+        <v>2239.36878359935</v>
+      </c>
+      <c r="F36" s="15">
+        <f>LN(F35+$C$36)*$C$35</f>
+        <v>2253.9158412677</v>
+      </c>
+      <c r="G36" s="15">
+        <f>LN(G35+$C$36)*$C$35</f>
+        <v>2281.51298986248</v>
+      </c>
+      <c r="H36" s="15">
+        <f>LN(H35+$C$36)*$C$35</f>
+        <v>2343.17326179338</v>
+      </c>
+      <c r="J36" s="31">
+        <f>E42/D36</f>
+        <v>1.45421205742487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13">
+        <v>200</v>
+      </c>
+      <c r="E38" s="13">
+        <v>500</v>
+      </c>
+      <c r="F38" s="13">
+        <v>600</v>
+      </c>
+      <c r="G38" s="13">
+        <v>800</v>
+      </c>
+      <c r="H38" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="15">
+        <f>LN(D38+$C$36)*$C$35</f>
+        <v>2443.69903310575</v>
+      </c>
+      <c r="E39" s="15">
+        <f>LN(E38+$C$36)*$C$35</f>
+        <v>2648.02928261214</v>
+      </c>
+      <c r="F39" s="15">
+        <f>LN(F38+$C$36)*$C$35</f>
+        <v>2698.09453979374</v>
+      </c>
+      <c r="G39" s="15">
+        <f>LN(G38+$C$36)*$C$35</f>
+        <v>2782.61817726063</v>
+      </c>
+      <c r="H39" s="15">
+        <f>LN(H38+$C$36)*$C$35</f>
+        <v>2852.35953211854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="13">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="15">
+        <f>LN(D41+$C$36)*$C$35</f>
+        <v>3087.47419807939</v>
+      </c>
+      <c r="E42" s="15">
+        <f>LN(E41+$C$36)*$C$35</f>
+        <v>3234.56411012951</v>
+      </c>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:A42"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/lyy/收入计算表.xlsx
+++ b/lyy/收入计算表.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\py\lyy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12660" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
   <si>
     <t>案件数</t>
   </si>
@@ -142,20 +149,106 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例号</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例名称</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主办/副办</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>月份</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>高源</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>高源</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董啸</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董啸</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏宇</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>A01</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,7 +312,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="7" tint="-0.25"/>
+      <color theme="7" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,7 +328,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5" tint="-0.25"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -248,158 +341,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,13 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,198 +395,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -652,275 +423,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -930,15 +447,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1024,69 +532,43 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1095,8 +577,305 @@
       <xdr:rowOff>42545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3746500" cy="265430"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10451465" y="804545"/>
+              <a:ext cx="3746500" cy="265430"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
@@ -1131,302 +910,6 @@
             </a:bodyPr>
             <a:p>
               <a:pPr algn="l"/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑆</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑎</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>×</m:t>
-                    </m:r>
-                    <m:func>
-                      <m:funcPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:funcPr>
-                      <m:fName>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>ln</m:t>
-                        </m:r>
-                      </m:fName>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑀</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>+</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:func>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑏</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>×</m:t>
-                    </m:r>
-                    <m:func>
-                      <m:funcPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:funcPr>
-                      <m:fName>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>ln</m:t>
-                        </m:r>
-                      </m:fName>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑁</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>+</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑦</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:func>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑐</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>×</m:t>
-                    </m:r>
-                    <m:func>
-                      <m:funcPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:funcPr>
-                      <m:fName>
-                        <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>ln</m:t>
-                        </m:r>
-                      </m:fName>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>(</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑇</m:t>
-                        </m:r>
-                        <m:r>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                          </a:rPr>
-                          <m:t>)</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:func>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>+</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑑</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="文本框 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="10451465" y="804545"/>
-              <a:ext cx="3746500" cy="265430"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:p>
-              <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
                   <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
@@ -1639,9 +1122,9 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3734435" cy="328295"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:sp>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -1782,28 +1265,28 @@
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>𝑆</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>=</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>𝑎</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>×</m:t>
@@ -1811,8 +1294,8 @@
                     <m:func>
                       <m:funcPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -1823,7 +1306,7 @@
                             <m:sty m:val="p"/>
                           </m:rPr>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>ln</m:t>
@@ -1832,35 +1315,35 @@
                       <m:e>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>𝑀</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>+</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>𝑥</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>)</m:t>
@@ -1869,21 +1352,21 @@
                     </m:func>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>+</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>𝑏</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>×</m:t>
@@ -1892,7 +1375,7 @@
                       <m:radPr>
                         <m:ctrlPr>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -1900,7 +1383,7 @@
                       <m:deg>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>𝑞</m:t>
@@ -1909,35 +1392,35 @@
                       <m:e>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>𝑁</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>+</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>𝑦</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>)</m:t>
@@ -1946,21 +1429,21 @@
                     </m:rad>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>+</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>𝑐</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>×</m:t>
@@ -1968,8 +1451,8 @@
                     <m:func>
                       <m:funcPr>
                         <m:ctrlPr>
-                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -1980,7 +1463,7 @@
                             <m:sty m:val="p"/>
                           </m:rPr>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>ln</m:t>
@@ -1989,21 +1472,21 @@
                       <m:e>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>(</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>𝑇</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                            <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                           </a:rPr>
                           <m:t>)</m:t>
@@ -2012,14 +1495,14 @@
                     </m:func>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>+</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
-                        <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                       </a:rPr>
                       <m:t>𝑑</m:t>
@@ -2032,7 +1515,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
@@ -2412,7 +1895,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2421,6 +1904,969 @@
         <a:xfrm>
           <a:off x="1104900" y="8836025"/>
           <a:ext cx="6708140" cy="5010150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>14605</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42545</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3746500" cy="265430"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10454005" y="814070"/>
+              <a:ext cx="3746500" cy="265430"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="文本框 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10454005" y="814070"/>
+              <a:ext cx="3746500" cy="265430"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆=𝑎×ln⁡〖(𝑀+𝑥)〗+𝑏×ln⁡〖(𝑁+𝑦)〗+𝑐×ln⁡〖(𝑇)〗+𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3734435" cy="328295"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10448925" y="3070225"/>
+              <a:ext cx="3734435" cy="328295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑆</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑀</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑏</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑞</m:t>
+                        </m:r>
+                      </m:deg>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑁</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑦</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>×</m:t>
+                    </m:r>
+                    <m:func>
+                      <m:funcPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:funcPr>
+                      <m:fName>
+                        <m:r>
+                          <m:rPr>
+                            <m:sty m:val="p"/>
+                          </m:rPr>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>ln</m:t>
+                        </m:r>
+                      </m:fName>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>(</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:func>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>+</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑑</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="文本框 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10448925" y="3070225"/>
+              <a:ext cx="3734435" cy="328295"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="zh-CN">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:defRPr>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆=𝑎×ln⁡〖(𝑀+𝑥)〗+𝑏×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑞&amp;(𝑁+𝑦))+𝑐×ln⁡〖(𝑇)〗+𝑑</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>690880</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3" descr="对数函数和指数函数"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="9105900"/>
+          <a:ext cx="6710680" cy="5286375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2684,19 +3130,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
@@ -2711,302 +3157,302 @@
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="18" customHeight="1" spans="3:16">
-      <c r="C2" s="7" t="s">
+    <row r="2" spans="1:16" ht="18" customHeight="1">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="36" t="s">
+      <c r="L2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="P2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="3:16">
-      <c r="C3" s="7">
+    <row r="3" spans="1:16" ht="18" customHeight="1">
+      <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="27">
         <v>2</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="12">
         <f t="shared" ref="G3:G8" si="0">$C$24*LN(D3+$C$25)</f>
-        <v>2208.5843671449</v>
-      </c>
-      <c r="H3" s="19">
+        <v>2208.5843671448984</v>
+      </c>
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H8" si="1">$C$20*LN(C3+$C$21)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:I8" si="2">$O$20*POWER(C3,$O$19)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="12">
         <f t="shared" ref="J3:J8" si="3">LN(F3)*$C$16+$C$17</f>
-        <v>668.380688059155</v>
-      </c>
-      <c r="K3" s="20">
+        <v>668.38068805915509</v>
+      </c>
+      <c r="K3" s="13">
         <f>SUM(G3,H3,J3)</f>
-        <v>2876.96505520405</v>
-      </c>
-      <c r="L3" s="38">
+        <v>2876.9650552040534</v>
+      </c>
+      <c r="L3" s="31">
         <f>SUM(G3,I3,J3)</f>
-        <v>2876.96505520405</v>
+        <v>2876.9650552040534</v>
       </c>
       <c r="P3">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1" spans="3:16">
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7">
+    <row r="4" spans="1:16" ht="18" customHeight="1">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
         <v>400</v>
       </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="19">
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>2590.78894515587</v>
-      </c>
-      <c r="H4" s="19">
+        <v>2590.7889451558731</v>
+      </c>
+      <c r="H4" s="12">
         <f t="shared" si="1"/>
-        <v>693.147180559945</v>
-      </c>
-      <c r="I4" s="37">
+        <v>693.14718055994524</v>
+      </c>
+      <c r="I4" s="30">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="J4" s="19">
+      <c r="J4" s="12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K4" s="20">
+      <c r="K4" s="13">
         <f t="shared" ref="K4:K8" si="4">SUM(G4,H4,J4)</f>
-        <v>3383.93612571582</v>
-      </c>
-      <c r="L4" s="38">
+        <v>3383.9361257158184</v>
+      </c>
+      <c r="L4" s="31">
         <f t="shared" ref="L4:L8" si="5">SUM(G4,I4,J4)</f>
-        <v>3790.78894515587</v>
+        <v>3790.7889451558731</v>
       </c>
       <c r="P4">
         <v>4500</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="3:16">
-      <c r="C5" s="7">
+    <row r="5" spans="1:16" ht="18" customHeight="1">
+      <c r="C5" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <v>200</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>2443.69903310575</v>
-      </c>
-      <c r="H5" s="19">
+        <v>2443.6990331057464</v>
+      </c>
+      <c r="H5" s="12">
         <f t="shared" si="1"/>
-        <v>1098.61228866811</v>
-      </c>
-      <c r="I5" s="37">
+        <v>1098.6122886681098</v>
+      </c>
+      <c r="I5" s="30">
         <f t="shared" si="2"/>
-        <v>1385.91315488436</v>
-      </c>
-      <c r="J5" s="19">
+        <v>1385.9131548843604</v>
+      </c>
+      <c r="J5" s="12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="13">
         <f t="shared" si="4"/>
-        <v>3642.31132177386</v>
-      </c>
-      <c r="L5" s="38">
+        <v>3642.3113217738564</v>
+      </c>
+      <c r="L5" s="31">
         <f t="shared" si="5"/>
-        <v>3929.61218799011</v>
+        <v>3929.6121879901066</v>
       </c>
       <c r="P5">
         <v>4200</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="3:16">
-      <c r="C6" s="7">
+    <row r="6" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <v>1200</v>
       </c>
-      <c r="E6" s="8">
-        <v>1</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1</v>
-      </c>
-      <c r="G6" s="21">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
         <f t="shared" si="0"/>
-        <v>2911.72753416585</v>
-      </c>
-      <c r="H6" s="21">
+        <v>2911.7275341658478</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="1"/>
-        <v>1386.29436111989</v>
-      </c>
-      <c r="I6" s="39">
+        <v>1386.2943611198905</v>
+      </c>
+      <c r="I6" s="32">
         <f t="shared" si="2"/>
-        <v>1586.47452733815</v>
-      </c>
-      <c r="J6" s="21">
+        <v>1586.4745273381491</v>
+      </c>
+      <c r="J6" s="14">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="13">
         <f t="shared" si="4"/>
-        <v>4398.02189528574</v>
-      </c>
-      <c r="L6" s="38">
+        <v>4398.0218952857385</v>
+      </c>
+      <c r="L6" s="31">
         <f t="shared" si="5"/>
-        <v>4598.202061504</v>
+        <v>4598.2020615039964</v>
       </c>
       <c r="P6" s="1">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="3:16">
-      <c r="C7" s="7">
+    <row r="7" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
         <v>3</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>2214.93370680741</v>
-      </c>
-      <c r="H7" s="19">
+        <v>2214.9337068074146</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="1"/>
-        <v>1609.4379124341</v>
-      </c>
-      <c r="I7" s="37">
+        <v>1609.4379124341003</v>
+      </c>
+      <c r="I7" s="30">
         <f t="shared" si="2"/>
-        <v>1746.14115716502</v>
-      </c>
-      <c r="J7" s="19">
+        <v>1746.1411571650192</v>
+      </c>
+      <c r="J7" s="12">
         <f t="shared" si="3"/>
-        <v>1000.86207670785</v>
-      </c>
-      <c r="K7" s="20">
+        <v>1000.8620767078501</v>
+      </c>
+      <c r="K7" s="13">
         <f t="shared" si="4"/>
-        <v>4825.23369594937</v>
-      </c>
-      <c r="L7" s="38">
+        <v>4825.233695949365</v>
+      </c>
+      <c r="L7" s="31">
         <f t="shared" si="5"/>
-        <v>4961.93694068028</v>
+        <v>4961.9369406802834</v>
       </c>
       <c r="P7" s="1">
         <v>3300</v>
       </c>
     </row>
-    <row r="8" ht="18" customHeight="1" spans="3:12">
-      <c r="C8" s="7">
+    <row r="8" spans="1:16" ht="18" customHeight="1">
+      <c r="C8" s="3">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <v>3000</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="4">
         <v>0</v>
       </c>
-      <c r="F8" s="35">
-        <v>1</v>
-      </c>
-      <c r="G8" s="19">
+      <c r="F8" s="28">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
-        <v>3234.56411012951</v>
-      </c>
-      <c r="H8" s="19">
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="1"/>
-        <v>1791.75946922805</v>
-      </c>
-      <c r="I8" s="37">
+        <v>1791.759469228055</v>
+      </c>
+      <c r="I8" s="30">
         <f t="shared" si="2"/>
-        <v>1880.97354134437</v>
-      </c>
-      <c r="J8" s="19">
+        <v>1880.9735413443666</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="13">
         <f t="shared" si="4"/>
-        <v>5126.32357935757</v>
-      </c>
-      <c r="L8" s="38">
+        <v>5126.3235793575677</v>
+      </c>
+      <c r="L8" s="31">
         <f t="shared" si="5"/>
-        <v>5215.53765147388</v>
-      </c>
-    </row>
-    <row r="9" spans="11:12">
-      <c r="K9" s="29">
+        <v>5215.5376514738791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="K9" s="22">
         <f>SUM(K4:K8)</f>
-        <v>21375.8266180823</v>
-      </c>
-      <c r="L9" s="29">
+        <v>21375.826618082348</v>
+      </c>
+      <c r="L9" s="22">
         <f>SUM(L4:L8)</f>
-        <v>22496.0777868041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>22496.077786804137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="26">
         <v>820</v>
       </c>
       <c r="D16">
@@ -3019,11 +3465,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="1:22">
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="26">
         <v>100</v>
       </c>
       <c r="D17">
@@ -3032,20 +3478,20 @@
       </c>
       <c r="E17">
         <f t="shared" ref="E17:F17" si="6">$C$16*LN(E16)+100</f>
-        <v>668.380688059155</v>
+        <v>668.38068805915509</v>
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>1000.86207670785</v>
-      </c>
-    </row>
-    <row r="19" spans="14:15">
+        <v>1000.8620767078501</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="N19" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="40">
+      <c r="O19" s="33">
         <f>1/3</f>
-        <v>0.333333333333333</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -3055,7 +3501,7 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="26">
         <v>1000</v>
       </c>
       <c r="D20">
@@ -3082,7 +3528,7 @@
       <c r="N20" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="33">
+      <c r="O20" s="26">
         <v>1100</v>
       </c>
       <c r="P20">
@@ -3104,41 +3550,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:22">
+    <row r="21" spans="1:22">
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="26">
         <v>1</v>
       </c>
       <c r="D21">
         <f>LN(D20+$C$21)*$C$20</f>
-        <v>693.147180559945</v>
+        <v>693.14718055994524</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:H21" si="7">LN(E20+$C$21)*$C$20</f>
-        <v>1098.61228866811</v>
+        <v>1098.6122886681098</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
-        <v>1386.29436111989</v>
+        <v>1386.2943611198905</v>
       </c>
       <c r="G21">
         <f t="shared" si="7"/>
-        <v>1609.4379124341</v>
+        <v>1609.4379124341003</v>
       </c>
       <c r="H21">
         <f t="shared" si="7"/>
-        <v>1791.75946922805</v>
+        <v>1791.759469228055</v>
       </c>
       <c r="J21">
         <f>H21/D21</f>
-        <v>2.58496250072116</v>
+        <v>2.5849625007211565</v>
       </c>
       <c r="N21" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="26">
         <v>1</v>
       </c>
       <c r="P21">
@@ -3147,33 +3593,33 @@
       </c>
       <c r="Q21">
         <f>POWER(Q20,$O$19)*$O$20</f>
-        <v>1385.91315488436</v>
+        <v>1385.9131548843604</v>
       </c>
       <c r="R21">
         <f t="shared" ref="R21:T21" si="8">POWER(R20,$O$19)*$O$20</f>
-        <v>1586.47452733815</v>
+        <v>1586.4745273381491</v>
       </c>
       <c r="S21">
         <f t="shared" si="8"/>
-        <v>1746.14115716502</v>
+        <v>1746.1411571650192</v>
       </c>
       <c r="T21">
         <f t="shared" si="8"/>
-        <v>1880.97354134437</v>
+        <v>1880.9735413443666</v>
       </c>
       <c r="V21">
         <f>T21/P21</f>
-        <v>1.7099759466767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.7099759466766968</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="26">
         <v>400</v>
       </c>
       <c r="D24">
@@ -3216,83 +3662,82 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:18">
+    <row r="25" spans="1:22">
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="26">
         <v>250</v>
       </c>
       <c r="D25">
         <f>LN(D24+$C$25)*$C$24</f>
-        <v>2224.27265240621</v>
+        <v>2224.2726524062109</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:O25" si="9">LN(E24+$C$25)*$C$24</f>
-        <v>2239.36878359935</v>
+        <v>2239.3687835993501</v>
       </c>
       <c r="F25">
         <f t="shared" si="9"/>
-        <v>2253.9158412677</v>
+        <v>2253.9158412676998</v>
       </c>
       <c r="G25">
         <f t="shared" si="9"/>
-        <v>2281.51298986248</v>
+        <v>2281.5129898624805</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
-        <v>2343.17326179338</v>
+        <v>2343.1732617933835</v>
       </c>
       <c r="I25">
         <f t="shared" si="9"/>
-        <v>2443.69903310575</v>
+        <v>2443.6990331057464</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>2648.02928261214</v>
+        <v>2648.0292826121422</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>2698.09453979374</v>
+        <v>2698.0945397937448</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
-        <v>2782.61817726063</v>
+        <v>2782.6181772606278</v>
       </c>
       <c r="M25">
         <f t="shared" si="9"/>
-        <v>2852.35953211854</v>
+        <v>2852.3595321185385</v>
       </c>
       <c r="N25">
         <f t="shared" si="9"/>
-        <v>3087.47419807939</v>
+        <v>3087.4741980793865</v>
       </c>
       <c r="O25">
         <f t="shared" si="9"/>
-        <v>3234.56411012951</v>
+        <v>3234.5641101295128</v>
       </c>
       <c r="R25">
         <f>O25/D25</f>
-        <v>1.45421205742487</v>
+        <v>1.4542120574248718</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="13.625" customWidth="1"/>
@@ -3344,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2208.5843671449</v>
+        <v>2208.5843671449002</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3353,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>668.380688059155</v>
+        <v>668.38068805915498</v>
       </c>
       <c r="I2">
-        <v>2876.96505520405</v>
+        <v>2876.9650552040498</v>
       </c>
       <c r="J2">
-        <v>2876.96505520405</v>
+        <v>2876.9650552040498</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3376,10 +3821,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2343.17326179338</v>
+        <v>2343.1732617933799</v>
       </c>
       <c r="F3">
-        <v>693.147180559945</v>
+        <v>693.14718055994501</v>
       </c>
       <c r="G3">
         <v>1100</v>
@@ -3388,10 +3833,10 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>3136.32044235333</v>
+        <v>3136.3204423533298</v>
       </c>
       <c r="J3">
-        <v>3543.17326179338</v>
+        <v>3543.1732617933799</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3408,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2343.17326179338</v>
+        <v>2343.1732617933799</v>
       </c>
       <c r="F4">
-        <v>1098.61228866811</v>
+        <v>1098.6122886681101</v>
       </c>
       <c r="G4">
         <v>1385.91315488436</v>
@@ -3420,10 +3865,10 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>3541.78555046149</v>
+        <v>3541.7855504614899</v>
       </c>
       <c r="J4">
-        <v>3829.08641667774</v>
+        <v>3829.0864166777401</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3440,7 +3885,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2343.17326179338</v>
+        <v>2343.1732617933799</v>
       </c>
       <c r="F5">
         <v>1386.29436111989</v>
@@ -3452,10 +3897,10 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>3829.46762291327</v>
+        <v>3829.4676229132701</v>
       </c>
       <c r="J5">
-        <v>4029.64778913153</v>
+        <v>4029.6477891315299</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3472,19 +3917,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2343.17326179338</v>
+        <v>2343.1732617933799</v>
       </c>
       <c r="F6">
-        <v>1609.4379124341</v>
+        <v>1609.4379124341001</v>
       </c>
       <c r="G6">
-        <v>1746.14115716502</v>
+        <v>1746.1411571650201</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>4052.61117422748</v>
+        <v>4052.6111742274802</v>
       </c>
       <c r="J6">
         <v>4189.3144189584</v>
@@ -3504,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2343.17326179338</v>
+        <v>2343.1732617933799</v>
       </c>
       <c r="F7">
         <v>1791.75946922805</v>
@@ -3516,18 +3961,18 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>4234.93273102144</v>
+        <v>4234.9327310214403</v>
       </c>
       <c r="J7">
-        <v>4324.14680313775</v>
-      </c>
-    </row>
-    <row r="8" spans="9:10">
+        <v>4324.1468031377499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="I8">
-        <v>21672.0825761811</v>
+        <v>21672.082576181099</v>
       </c>
       <c r="J8">
-        <v>22792.3337449029</v>
+        <v>22792.333744902899</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3576,7 +4021,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2208.5843671449</v>
+        <v>2208.5843671449002</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3585,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>668.380688059155</v>
+        <v>668.38068805915498</v>
       </c>
       <c r="I11">
-        <v>2876.96505520405</v>
+        <v>2876.9650552040498</v>
       </c>
       <c r="J11">
-        <v>2876.96505520405</v>
+        <v>2876.9650552040498</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3611,7 +4056,7 @@
         <v>3234.56411012951</v>
       </c>
       <c r="F12">
-        <v>693.147180559945</v>
+        <v>693.14718055994501</v>
       </c>
       <c r="G12">
         <v>1100</v>
@@ -3620,10 +4065,10 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>4027.71129068946</v>
+        <v>4027.7112906894599</v>
       </c>
       <c r="J12">
-        <v>4434.56411012951</v>
+        <v>4434.5641101295096</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3643,7 +4088,7 @@
         <v>3234.56411012951</v>
       </c>
       <c r="F13">
-        <v>1098.61228866811</v>
+        <v>1098.6122886681101</v>
       </c>
       <c r="G13">
         <v>1385.91315488436</v>
@@ -3652,10 +4097,10 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>4433.17639879762</v>
+        <v>4433.1763987976201</v>
       </c>
       <c r="J13">
-        <v>4720.47726501387</v>
+        <v>4720.4772650138702</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3684,7 +4129,7 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>4720.8584712494</v>
+        <v>4720.8584712494003</v>
       </c>
       <c r="J14">
         <v>4921.03863746766</v>
@@ -3707,19 +4152,19 @@
         <v>3234.56411012951</v>
       </c>
       <c r="F15">
-        <v>1609.4379124341</v>
+        <v>1609.4379124341001</v>
       </c>
       <c r="G15">
-        <v>1746.14115716502</v>
+        <v>1746.1411571650201</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15">
-        <v>4944.00202256361</v>
+        <v>4944.0020225636099</v>
       </c>
       <c r="J15">
-        <v>5080.70526729453</v>
+        <v>5080.7052672945301</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3748,7 +4193,7 @@
         <v>100</v>
       </c>
       <c r="I16">
-        <v>5126.32357935757</v>
+        <v>5126.3235793575705</v>
       </c>
       <c r="J16">
         <v>5215.53765147388</v>
@@ -3756,173 +4201,172 @@
     </row>
     <row r="17" spans="9:10">
       <c r="I17">
-        <v>26129.0368178617</v>
+        <v>26129.036817861699</v>
       </c>
       <c r="J17">
-        <v>27249.2879865835</v>
+        <v>27249.287986583498</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.6833333333333" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="16.0833333333333" customWidth="1"/>
-    <col min="5" max="5" width="15.325" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="9.01666666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.7" customWidth="1"/>
-    <col min="12" max="12" width="11.1916666666667" customWidth="1"/>
-    <col min="13" max="13" width="10.1083333333333" customWidth="1"/>
-    <col min="14" max="14" width="10.7583333333333" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
     <col min="17" max="17" width="12.625"/>
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="2:8">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" ht="27.75">
+      <c r="B1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" customFormat="1" ht="15" customHeight="1" spans="10:11">
-      <c r="J2" s="26"/>
-      <c r="K2" s="27" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:13" ht="18" customHeight="1">
+      <c r="A3" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" spans="1:13" ht="18" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>400</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
         <f>$C$35*LN(C4+$C$36)</f>
-        <v>2590.78894515587</v>
-      </c>
-      <c r="F4" s="19">
+        <v>2590.7889451558731</v>
+      </c>
+      <c r="F4" s="12">
         <f>$C$26*LN(B4+$C$27)</f>
-        <v>693.147180559945</v>
-      </c>
-      <c r="G4" s="19">
+        <v>693.14718055994524</v>
+      </c>
+      <c r="G4" s="12">
         <f>LN(D4)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="13">
         <f>SUM(E4,F4,G4)</f>
-        <v>3383.93612571582</v>
-      </c>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7">
+        <v>3383.9361257158184</v>
+      </c>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>200</v>
       </c>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
         <f>$C$35*LN(C5+$C$36)</f>
-        <v>2443.69903310575</v>
-      </c>
-      <c r="F5" s="19">
+        <v>2443.6990331057464</v>
+      </c>
+      <c r="F5" s="12">
         <f>$C$26*LN(B5+$C$27)</f>
-        <v>1098.61228866811</v>
-      </c>
-      <c r="G5" s="19">
+        <v>1098.6122886681098</v>
+      </c>
+      <c r="G5" s="12">
         <f>LN(D5)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="13">
         <f>SUM(E5,F5,G5)</f>
-        <v>3642.31132177386</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7">
+        <v>3642.3113217738564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>1200</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
         <f>$C$35*LN(C6+$C$36)</f>
-        <v>2911.72753416585</v>
-      </c>
-      <c r="F6" s="21">
+        <v>2911.7275341658478</v>
+      </c>
+      <c r="F6" s="14">
         <f>$C$26*LN(B6+$C$27)</f>
-        <v>1386.29436111989</v>
-      </c>
-      <c r="G6" s="21">
+        <v>1386.2943611198905</v>
+      </c>
+      <c r="G6" s="14">
         <f>LN(D6)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="13">
         <f>SUM(E6,F6,G6)</f>
-        <v>4398.02189528574</v>
+        <v>4398.0218952857385</v>
       </c>
       <c r="J6" s="1" t="str">
         <f>"a="&amp;C35</f>
@@ -3941,32 +4385,32 @@
         <v>d=100</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>4</v>
       </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
         <f>$C$35*LN(C7+$C$36)</f>
-        <v>2214.93370680741</v>
-      </c>
-      <c r="F7" s="19">
+        <v>2214.9337068074146</v>
+      </c>
+      <c r="F7" s="12">
         <f>$C$26*LN(B7+$C$27)</f>
-        <v>1609.4379124341</v>
-      </c>
-      <c r="G7" s="19">
+        <v>1609.4379124341003</v>
+      </c>
+      <c r="G7" s="12">
         <f>LN(D7)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="13">
         <f>SUM(E7,F7,G7)</f>
-        <v>3924.37161924151</v>
+        <v>3924.371619241515</v>
       </c>
       <c r="J7" s="1" t="str">
         <f>"x="&amp;C36</f>
@@ -3977,195 +4421,194 @@
         <v>y=1</v>
       </c>
     </row>
-    <row r="8" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7">
+    <row r="8" spans="1:13" ht="18" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>3000</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
         <f>$C$35*LN(C8+$C$36)</f>
-        <v>3234.56411012951</v>
-      </c>
-      <c r="F8" s="19">
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F8" s="12">
         <f>$C$26*LN(B8+$C$27)</f>
-        <v>1791.75946922805</v>
-      </c>
-      <c r="G8" s="19">
+        <v>1791.759469228055</v>
+      </c>
+      <c r="G8" s="12">
         <f>LN(D8)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="13">
         <f>SUM(E8,F8,G8)</f>
-        <v>5126.32357935757</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" ht="20" customHeight="1" spans="5:10">
-      <c r="E9" s="22">
+        <v>5126.3235793575677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="E9" s="15">
         <f>SUM(E4:E8)</f>
-        <v>13395.7133293644</v>
-      </c>
-      <c r="F9" s="22">
+        <v>13395.713329364395</v>
+      </c>
+      <c r="F9" s="15">
         <f>SUM(F4:F8)</f>
-        <v>6579.2512120101</v>
-      </c>
-      <c r="G9" s="22">
+        <v>6579.2512120101001</v>
+      </c>
+      <c r="G9" s="15">
         <f>SUM(G4:G8)</f>
         <v>500</v>
       </c>
-      <c r="H9" s="22">
+      <c r="H9" s="15">
         <f>SUM(H4:H8)</f>
-        <v>20474.9645413745</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-    </row>
-    <row r="10" customFormat="1" spans="9:10">
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" customFormat="1"/>
-    <row r="12" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A12" s="4" t="s">
+        <v>20474.964541374495</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="H12" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
+    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
         <v>400</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <f t="shared" ref="E11:E17" si="0">$C$35*LN(C13+$C$36)</f>
-        <v>2590.78894515587</v>
-      </c>
-      <c r="F13" s="25">
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" ref="E13:E17" si="0">$C$35*LN(C13+$C$36)</f>
+        <v>2590.7889451558731</v>
+      </c>
+      <c r="F13" s="18">
         <f>$C$31*POWER((B13+$C$32),$C$30)</f>
         <v>1100</v>
       </c>
-      <c r="G13" s="19">
-        <f t="shared" ref="G12:G17" si="1">LN(D13)*$C$22+$C$23</f>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13:G17" si="1">LN(D13)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="13">
         <f>SUM(E13,F13,G13)</f>
-        <v>3790.78894515587</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7">
+        <v>3790.7889451558731</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>200</v>
       </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
-        <v>2443.69903310575</v>
-      </c>
-      <c r="F14" s="25">
+        <v>2443.6990331057464</v>
+      </c>
+      <c r="F14" s="18">
         <f>$C$31*POWER((B14+$C$32),$C$30)</f>
-        <v>1385.91315488436</v>
-      </c>
-      <c r="G14" s="19">
+        <v>1385.9131548843604</v>
+      </c>
+      <c r="G14" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="13">
         <f>SUM(E14,F14,G14)</f>
-        <v>3929.61218799011</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7">
+        <v>3929.6121879901066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="3">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>1200</v>
       </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="21">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
         <f t="shared" si="0"/>
-        <v>2911.72753416585</v>
-      </c>
-      <c r="F15" s="25">
+        <v>2911.7275341658478</v>
+      </c>
+      <c r="F15" s="18">
         <f>$C$31*POWER((B15+$C$32),$C$30)</f>
-        <v>1586.47452733815</v>
-      </c>
-      <c r="G15" s="21">
+        <v>1586.4745273381491</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="13">
         <f>SUM(E15,F15,G15)</f>
-        <v>4598.202061504</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7">
+        <v>4598.2020615039964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="3">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="E16" s="19">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
-        <v>2214.93370680741</v>
-      </c>
-      <c r="F16" s="25">
+        <v>2214.9337068074146</v>
+      </c>
+      <c r="F16" s="18">
         <f>$C$31*POWER((B16+$C$32),$C$30)</f>
-        <v>1746.14115716502</v>
-      </c>
-      <c r="G16" s="19">
+        <v>1746.1411571650192</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="13">
         <f>SUM(E16,F16,G16)</f>
-        <v>4061.07486397243</v>
+        <v>4061.0748639724338</v>
       </c>
       <c r="J16" s="1" t="str">
         <f>"a="&amp;C35</f>
@@ -4184,32 +4627,32 @@
         <v>d=100</v>
       </c>
     </row>
-    <row r="17" customFormat="1" ht="18" customHeight="1" spans="1:13">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7">
+    <row r="17" spans="1:13" ht="18" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="3">
         <v>5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>3000</v>
       </c>
-      <c r="D17" s="9">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>3234.56411012951</v>
-      </c>
-      <c r="F17" s="25">
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F17" s="18">
         <f>$C$31*POWER((B17+$C$32),$C$30)</f>
-        <v>1880.97354134437</v>
-      </c>
-      <c r="G17" s="19">
+        <v>1880.9735413443666</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H17" s="20">
+      <c r="H17" s="13">
         <f>SUM(E17,F17,G17)</f>
-        <v>5215.53765147388</v>
+        <v>5215.5376514738791</v>
       </c>
       <c r="J17" s="1" t="str">
         <f>"x="&amp;C36</f>
@@ -4225,403 +4668,1322 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" customFormat="1" spans="5:8">
-      <c r="E18" s="22">
+    <row r="18" spans="1:13">
+      <c r="E18" s="15">
         <f>SUM(E13:E17)</f>
-        <v>13395.7133293644</v>
-      </c>
-      <c r="F18" s="22">
+        <v>13395.713329364395</v>
+      </c>
+      <c r="F18" s="15">
         <f>SUM(F13:F17)</f>
-        <v>7699.5023807319</v>
-      </c>
-      <c r="G18" s="22">
+        <v>7699.5023807318958</v>
+      </c>
+      <c r="G18" s="15">
         <f>SUM(G13:G17)</f>
         <v>500</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H18" s="15">
         <f>SUM(H13:H17)</f>
-        <v>21595.2157100963</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1"/>
-    <row r="20" customFormat="1"/>
-    <row r="21" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A21" s="10" t="s">
+        <v>21595.215710096287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="33" customHeight="1">
+      <c r="A21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
-      <c r="A22" s="12" t="s">
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="7">
         <v>820</v>
       </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="6">
         <v>3</v>
       </c>
-      <c r="J22" s="14"/>
-      <c r="K22" s="30" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:13">
+      <c r="A23" s="35"/>
+      <c r="B23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="7">
         <v>100</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="8">
         <f>$C$22*LN(D22)+$C$23</f>
         <v>100</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="8">
         <f>$C$22*LN(E22)+$C$23</f>
-        <v>668.380688059155</v>
-      </c>
-      <c r="F23" s="15">
+        <v>668.38068805915509</v>
+      </c>
+      <c r="F23" s="8">
         <f>$C$22*LN(F22)+$C$23</f>
-        <v>1000.86207670785</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1"/>
-    <row r="25" customFormat="1"/>
-    <row r="26" spans="1:10">
-      <c r="A26" s="12" t="s">
+        <v>1000.8620767078501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="7">
         <v>1000</v>
       </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="E26" s="13">
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
         <v>2</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="6">
         <v>3</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="6">
         <v>4</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="6">
         <v>5</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="35"/>
+      <c r="B27" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="14">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
         <f>LN(D26+$C$27)*$C$26</f>
-        <v>693.147180559945</v>
-      </c>
-      <c r="E27" s="15">
+        <v>693.14718055994524</v>
+      </c>
+      <c r="E27" s="8">
         <f>LN(E26+$C$27)*$C$26</f>
-        <v>1098.61228866811</v>
-      </c>
-      <c r="F27" s="15">
+        <v>1098.6122886681098</v>
+      </c>
+      <c r="F27" s="8">
         <f>LN(F26+$C$27)*$C$26</f>
-        <v>1386.29436111989</v>
-      </c>
-      <c r="G27" s="15">
+        <v>1386.2943611198905</v>
+      </c>
+      <c r="G27" s="8">
         <f>LN(G26+$C$27)*$C$26</f>
-        <v>1609.4379124341</v>
-      </c>
-      <c r="H27" s="15">
+        <v>1609.4379124341003</v>
+      </c>
+      <c r="H27" s="8">
         <f>LN(H26+$C$27)*$C$26</f>
-        <v>1791.75946922805</v>
-      </c>
-      <c r="J27" s="31">
+        <v>1791.759469228055</v>
+      </c>
+      <c r="J27" s="24">
         <f>H27/D27</f>
-        <v>2.58496250072116</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1"/>
-    <row r="29" customFormat="1"/>
-    <row r="30" customFormat="1" spans="1:8">
-      <c r="A30" s="12" t="s">
+        <v>2.5849625007211565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="9">
         <f>1/3</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" customFormat="1" spans="1:10">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13" t="s">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="35"/>
+      <c r="B31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="7">
         <v>1100</v>
       </c>
-      <c r="D31" s="13">
-        <v>1</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
         <v>2</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="6">
         <v>3</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="6">
         <v>4</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="6">
         <v>5</v>
       </c>
-      <c r="I31"/>
       <c r="J31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:10">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="1:13">
+      <c r="A32" s="35"/>
+      <c r="B32" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="7">
         <v>0</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="8">
         <f t="shared" ref="D32:H32" si="2">POWER(D31,$C$30)*$C$31</f>
         <v>1100</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="8">
         <f t="shared" si="2"/>
-        <v>1385.91315488436</v>
-      </c>
-      <c r="F32" s="15">
+        <v>1385.9131548843604</v>
+      </c>
+      <c r="F32" s="8">
         <f t="shared" si="2"/>
-        <v>1586.47452733815</v>
-      </c>
-      <c r="G32" s="15">
+        <v>1586.4745273381491</v>
+      </c>
+      <c r="G32" s="8">
         <f t="shared" si="2"/>
-        <v>1746.14115716502</v>
-      </c>
-      <c r="H32" s="15">
+        <v>1746.1411571650192</v>
+      </c>
+      <c r="H32" s="8">
         <f t="shared" si="2"/>
-        <v>1880.97354134437</v>
-      </c>
-      <c r="J32" s="31">
+        <v>1880.9735413443666</v>
+      </c>
+      <c r="J32" s="24">
         <f>H32/D32</f>
-        <v>1.7099759466767</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="10:10">
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" customFormat="1" spans="10:10">
-      <c r="J34" s="32"/>
-    </row>
-    <row r="35" customFormat="1" spans="1:10">
-      <c r="A35" s="12" t="s">
+        <v>1.7099759466766968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="7">
         <v>400</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="6">
         <v>10</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="6">
         <v>20</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="6">
         <v>30</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="6">
         <v>50</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="6">
         <v>100</v>
       </c>
-      <c r="J35" s="32" t="s">
+      <c r="J35" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:10">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="35"/>
+      <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="7">
         <v>250</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D36" s="8">
         <f>LN(D35+$C$36)*$C$35</f>
-        <v>2224.27265240621</v>
-      </c>
-      <c r="E36" s="15">
+        <v>2224.2726524062109</v>
+      </c>
+      <c r="E36" s="8">
         <f>LN(E35+$C$36)*$C$35</f>
-        <v>2239.36878359935</v>
-      </c>
-      <c r="F36" s="15">
+        <v>2239.3687835993501</v>
+      </c>
+      <c r="F36" s="8">
         <f>LN(F35+$C$36)*$C$35</f>
-        <v>2253.9158412677</v>
-      </c>
-      <c r="G36" s="15">
+        <v>2253.9158412676998</v>
+      </c>
+      <c r="G36" s="8">
         <f>LN(G35+$C$36)*$C$35</f>
-        <v>2281.51298986248</v>
-      </c>
-      <c r="H36" s="15">
+        <v>2281.5129898624805</v>
+      </c>
+      <c r="H36" s="8">
         <f>LN(H35+$C$36)*$C$35</f>
-        <v>2343.17326179338</v>
-      </c>
-      <c r="J36" s="31">
+        <v>2343.1732617933835</v>
+      </c>
+      <c r="J36" s="24">
         <f>E42/D36</f>
-        <v>1.45421205742487</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13">
+        <v>1.4542120574248718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="35"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="35"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
         <v>200</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="6">
         <v>500</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="6">
         <v>600</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="6">
         <v>800</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="6">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="15">
+    <row r="39" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8">
         <f>LN(D38+$C$36)*$C$35</f>
-        <v>2443.69903310575</v>
-      </c>
-      <c r="E39" s="15">
+        <v>2443.6990331057464</v>
+      </c>
+      <c r="E39" s="8">
         <f>LN(E38+$C$36)*$C$35</f>
-        <v>2648.02928261214</v>
-      </c>
-      <c r="F39" s="15">
+        <v>2648.0292826121422</v>
+      </c>
+      <c r="F39" s="8">
         <f>LN(F38+$C$36)*$C$35</f>
-        <v>2698.09453979374</v>
-      </c>
-      <c r="G39" s="15">
+        <v>2698.0945397937448</v>
+      </c>
+      <c r="G39" s="8">
         <f>LN(G38+$C$36)*$C$35</f>
-        <v>2782.61817726063</v>
-      </c>
-      <c r="H39" s="15">
+        <v>2782.6181772606278</v>
+      </c>
+      <c r="H39" s="8">
         <f>LN(H38+$C$36)*$C$35</f>
-        <v>2852.35953211854</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13">
+        <v>2852.3595321185385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="35"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
         <v>2000</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="6">
         <v>3000</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="15">
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="35"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8">
         <f>LN(D41+$C$36)*$C$35</f>
-        <v>3087.47419807939</v>
-      </c>
-      <c r="E42" s="15">
+        <v>3087.4741980793865</v>
+      </c>
+      <c r="E42" s="8">
         <f>LN(E41+$C$36)*$C$35</f>
-        <v>3234.56411012951</v>
-      </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:A27"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="8.75" customWidth="1"/>
+    <col min="12" max="12" width="11.25" customWidth="1"/>
+    <col min="13" max="13" width="10.125" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27.75">
+      <c r="B1" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="J2" s="19"/>
+      <c r="K2" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1">
+      <c r="A3" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" customHeight="1">
+      <c r="A4" s="39"/>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <f>$C$35*LN(C4+$C$36)</f>
+        <v>3087.4741980793865</v>
+      </c>
+      <c r="F4" s="12">
+        <f>$C$26*LN(B4+$C$27)</f>
+        <v>693.14718055994524</v>
+      </c>
+      <c r="G4" s="12">
+        <f>LN(D4)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="13">
+        <f>SUM(E4,F4,G4)</f>
+        <v>3880.6213786393319</v>
+      </c>
+      <c r="K4" s="21"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
+      <c r="A5" s="39"/>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <f>$C$35*LN(C5+$C$36)</f>
+        <v>2852.3595321185385</v>
+      </c>
+      <c r="F5" s="12">
+        <f>$C$26*LN(B5+$C$27)</f>
+        <v>693.14718055994524</v>
+      </c>
+      <c r="G5" s="12">
+        <f>LN(D5)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H5" s="13">
+        <f>SUM(E5,F5,G5)</f>
+        <v>3645.5067126784838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14">
+        <f>$C$35*LN(C6+$C$36)</f>
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F6" s="14">
+        <f>$C$26*LN(B6+$C$27)</f>
+        <v>1098.6122886681098</v>
+      </c>
+      <c r="G6" s="14">
+        <f>LN(D6)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H6" s="13">
+        <f>SUM(E6,F6,G6)</f>
+        <v>4433.1763987976228</v>
+      </c>
+      <c r="J6" s="21" t="str">
+        <f>"a="&amp;C35</f>
+        <v>a=400</v>
+      </c>
+      <c r="K6" s="21" t="str">
+        <f>"b="&amp;C26</f>
+        <v>b=1000</v>
+      </c>
+      <c r="L6" s="21" t="str">
+        <f>"c="&amp;C22</f>
+        <v>c=820</v>
+      </c>
+      <c r="M6" s="21" t="str">
+        <f>"d="&amp;C23</f>
+        <v>d=100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="39"/>
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <f>$C$35*LN(C7+$C$36)</f>
+        <v>2214.9337068074146</v>
+      </c>
+      <c r="F7" s="12">
+        <f>$C$26*LN(B7+$C$27)</f>
+        <v>1609.4379124341003</v>
+      </c>
+      <c r="G7" s="12">
+        <f>LN(D7)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H7" s="13">
+        <f>SUM(E7,F7,G7)</f>
+        <v>3924.371619241515</v>
+      </c>
+      <c r="J7" s="21" t="str">
+        <f>"x="&amp;C36</f>
+        <v>x=250</v>
+      </c>
+      <c r="K7" s="21" t="str">
+        <f>"y="&amp;C27</f>
+        <v>y=1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <f>$C$35*LN(C8+$C$36)</f>
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F8" s="12">
+        <f>$C$26*LN(B8+$C$27)</f>
+        <v>1791.759469228055</v>
+      </c>
+      <c r="G8" s="12">
+        <f>LN(D8)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H8" s="13">
+        <f>SUM(E8,F8,G8)</f>
+        <v>5126.3235793575677</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
+      <c r="E9" s="15">
+        <f>SUM(E4:E8)</f>
+        <v>14623.895657264366</v>
+      </c>
+      <c r="F9" s="15">
+        <f>SUM(F4:F8)</f>
+        <v>5886.1040314501552</v>
+      </c>
+      <c r="G9" s="15">
+        <f>SUM(G4:G8)</f>
+        <v>500</v>
+      </c>
+      <c r="H9" s="15">
+        <f>SUM(H4:H8)</f>
+        <v>21009.999688714524</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" ref="E13:E17" si="0">$C$35*LN(C13+$C$36)</f>
+        <v>3087.4741980793865</v>
+      </c>
+      <c r="F13" s="18">
+        <f>$C$31*POWER((B13+$C$32),$C$30)</f>
+        <v>1100</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" ref="G13:G17" si="1">LN(D13)*$C$22+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="H13" s="13">
+        <f>SUM(E13,F13,G13)</f>
+        <v>4287.474198079386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" customHeight="1">
+      <c r="A14" s="39"/>
+      <c r="B14" s="6">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>200</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>2443.6990331057464</v>
+      </c>
+      <c r="F14" s="18">
+        <f>$C$31*POWER((B14+$C$32),$C$30)</f>
+        <v>1385.9131548843604</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H14" s="13">
+        <f>SUM(E14,F14,G14)</f>
+        <v>3929.6121879901066</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="39"/>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1200</v>
+      </c>
+      <c r="D15" s="10">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <f t="shared" si="0"/>
+        <v>2911.7275341658478</v>
+      </c>
+      <c r="F15" s="18">
+        <f>$C$31*POWER((B15+$C$32),$C$30)</f>
+        <v>1586.4745273381491</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="13">
+        <f>SUM(E15,F15,G15)</f>
+        <v>4598.2020615039964</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="39"/>
+      <c r="B16" s="6">
+        <v>4</v>
+      </c>
+      <c r="C16" s="6">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>2214.9337068074146</v>
+      </c>
+      <c r="F16" s="18">
+        <f>$C$31*POWER((B16+$C$32),$C$30)</f>
+        <v>1746.1411571650192</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="13">
+        <f>SUM(E16,F16,G16)</f>
+        <v>4061.0748639724338</v>
+      </c>
+      <c r="J16" s="21" t="str">
+        <f>"a="&amp;C35</f>
+        <v>a=400</v>
+      </c>
+      <c r="K16" s="21" t="str">
+        <f>"b="&amp;C31</f>
+        <v>b=1100</v>
+      </c>
+      <c r="L16" s="21" t="str">
+        <f>"c="&amp;C22</f>
+        <v>c=820</v>
+      </c>
+      <c r="M16" s="21" t="str">
+        <f>"d="&amp;C23</f>
+        <v>d=100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1">
+      <c r="A17" s="39"/>
+      <c r="B17" s="6">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F17" s="18">
+        <f>$C$31*POWER((B17+$C$32),$C$30)</f>
+        <v>1880.9735413443666</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="13">
+        <f>SUM(E17,F17,G17)</f>
+        <v>5215.5376514738791</v>
+      </c>
+      <c r="J17" s="21" t="str">
+        <f>"x="&amp;C36</f>
+        <v>x=250</v>
+      </c>
+      <c r="K17" s="21" t="str">
+        <f>"y="&amp;C32</f>
+        <v>y=0</v>
+      </c>
+      <c r="L17" s="21" t="str">
+        <f>"q="&amp;1/C30</f>
+        <v>q=3</v>
+      </c>
+      <c r="M17" s="21"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="E18" s="15">
+        <f>SUM(E13:E17)</f>
+        <v>13892.398582287908</v>
+      </c>
+      <c r="F18" s="15">
+        <f>SUM(F13:F17)</f>
+        <v>7699.5023807318958</v>
+      </c>
+      <c r="G18" s="15">
+        <f>SUM(G13:G17)</f>
+        <v>500</v>
+      </c>
+      <c r="H18" s="15">
+        <f>SUM(H13:H17)</f>
+        <v>22091.900963019802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="33" customHeight="1">
+      <c r="A21" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7">
+        <v>820</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="35"/>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>100</v>
+      </c>
+      <c r="D23" s="8">
+        <f>$C$22*LN(D22)+$C$23</f>
+        <v>100</v>
+      </c>
+      <c r="E23" s="8">
+        <f>$C$22*LN(E22)+$C$23</f>
+        <v>668.38068805915509</v>
+      </c>
+      <c r="F23" s="8">
+        <f>$C$22*LN(F22)+$C$23</f>
+        <v>1000.8620767078501</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>3</v>
+      </c>
+      <c r="G26" s="6">
+        <v>4</v>
+      </c>
+      <c r="H26" s="6">
+        <v>5</v>
+      </c>
+      <c r="J26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="35"/>
+      <c r="B27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8">
+        <f>LN(D26+$C$27)*$C$26</f>
+        <v>693.14718055994524</v>
+      </c>
+      <c r="E27" s="8">
+        <f>LN(E26+$C$27)*$C$26</f>
+        <v>1098.6122886681098</v>
+      </c>
+      <c r="F27" s="8">
+        <f>LN(F26+$C$27)*$C$26</f>
+        <v>1386.2943611198905</v>
+      </c>
+      <c r="G27" s="8">
+        <f>LN(G26+$C$27)*$C$26</f>
+        <v>1609.4379124341003</v>
+      </c>
+      <c r="H27" s="8">
+        <f>LN(H26+$C$27)*$C$26</f>
+        <v>1791.759469228055</v>
+      </c>
+      <c r="J27" s="24">
+        <f>H27/D27</f>
+        <v>2.5849625007211565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="9">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="35"/>
+      <c r="B31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1100</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6">
+        <v>4</v>
+      </c>
+      <c r="H31" s="6">
+        <v>5</v>
+      </c>
+      <c r="J31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="35"/>
+      <c r="B32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" ref="D32:H32" si="2">POWER(D31,$C$30)*$C$31</f>
+        <v>1100</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="2"/>
+        <v>1385.9131548843604</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="2"/>
+        <v>1586.4745273381491</v>
+      </c>
+      <c r="G32" s="8">
+        <f t="shared" si="2"/>
+        <v>1746.1411571650192</v>
+      </c>
+      <c r="H32" s="8">
+        <f t="shared" si="2"/>
+        <v>1880.9735413443666</v>
+      </c>
+      <c r="J32" s="24">
+        <f>H32/D32</f>
+        <v>1.7099759466766968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="J33" s="25"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="7">
+        <v>400</v>
+      </c>
+      <c r="D35" s="6">
+        <v>10</v>
+      </c>
+      <c r="E35" s="6">
+        <v>20</v>
+      </c>
+      <c r="F35" s="6">
+        <v>30</v>
+      </c>
+      <c r="G35" s="6">
+        <v>50</v>
+      </c>
+      <c r="H35" s="6">
+        <v>100</v>
+      </c>
+      <c r="J35" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="35"/>
+      <c r="B36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="7">
+        <v>250</v>
+      </c>
+      <c r="D36" s="8">
+        <f>LN(D35+$C$36)*$C$35</f>
+        <v>2224.2726524062109</v>
+      </c>
+      <c r="E36" s="8">
+        <f>LN(E35+$C$36)*$C$35</f>
+        <v>2239.3687835993501</v>
+      </c>
+      <c r="F36" s="8">
+        <f>LN(F35+$C$36)*$C$35</f>
+        <v>2253.9158412676998</v>
+      </c>
+      <c r="G36" s="8">
+        <f>LN(G35+$C$36)*$C$35</f>
+        <v>2281.5129898624805</v>
+      </c>
+      <c r="H36" s="8">
+        <f>LN(H35+$C$36)*$C$35</f>
+        <v>2343.1732617933835</v>
+      </c>
+      <c r="J36" s="24">
+        <f>E42/D36</f>
+        <v>1.4542120574248718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="35"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="35"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6">
+        <v>200</v>
+      </c>
+      <c r="E38" s="6">
+        <v>500</v>
+      </c>
+      <c r="F38" s="6">
+        <v>600</v>
+      </c>
+      <c r="G38" s="6">
+        <v>800</v>
+      </c>
+      <c r="H38" s="6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="35"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8">
+        <f>LN(D38+$C$36)*$C$35</f>
+        <v>2443.6990331057464</v>
+      </c>
+      <c r="E39" s="8">
+        <f>LN(E38+$C$36)*$C$35</f>
+        <v>2648.0292826121422</v>
+      </c>
+      <c r="F39" s="8">
+        <f>LN(F38+$C$36)*$C$35</f>
+        <v>2698.0945397937448</v>
+      </c>
+      <c r="G39" s="8">
+        <f>LN(G38+$C$36)*$C$35</f>
+        <v>2782.6181772606278</v>
+      </c>
+      <c r="H39" s="8">
+        <f>LN(H38+$C$36)*$C$35</f>
+        <v>2852.3595321185385</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="35"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="35"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="6">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="35"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8">
+        <f>LN(D41+$C$36)*$C$35</f>
+        <v>3087.4741980793865</v>
+      </c>
+      <c r="E42" s="8">
+        <f>LN(E41+$C$36)*$C$35</f>
+        <v>3234.5641101295128</v>
+      </c>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A35:A42"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A26:A27"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/lyy/收入计算表.xlsx
+++ b/lyy/收入计算表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\py\lyy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12660" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +13,12 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>案件数</t>
   </si>
@@ -150,55 +145,87 @@
     <t>x</t>
   </si>
   <si>
+    <t>主办案件数(N)</t>
+  </si>
+  <si>
+    <t>主办案件总金额（万元）(M)</t>
+  </si>
+  <si>
+    <t>副办案件数(N)</t>
+  </si>
+  <si>
+    <t>副办案件
+总金额（万元）(M)</t>
+  </si>
+  <si>
+    <t>主办金额收入部分</t>
+  </si>
+  <si>
+    <t>副办金额收入部分</t>
+  </si>
+  <si>
+    <t>金额收入合计</t>
+  </si>
+  <si>
+    <t>主办件数收入部分(对数）</t>
+  </si>
+  <si>
+    <t>副办件数收入部分(对数）</t>
+  </si>
+  <si>
+    <t>件数收入合计</t>
+  </si>
+  <si>
+    <t>固定</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
     <t>姓名</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>案例号</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>案例名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>主办/副办</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>主</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>月份</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>高源</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>高源</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>董啸</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>董啸</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏宇</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -206,16 +233,24 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>01</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>主</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>A</t>
     </r>
     <r>
@@ -223,32 +258,45 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
       <t>02</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>董啸</t>
   </si>
   <si>
     <t>A01</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>B0</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏宇</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="30">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,12 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -279,9 +321,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -295,8 +335,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -328,7 +369,74 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="5" tint="-0.249977111117893"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -336,27 +444,81 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,13 +539,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,12 +563,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -423,98 +777,398 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -523,52 +1177,78 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -577,16 +1257,16 @@
       <xdr:rowOff>42545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3746500" cy="265430"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10451465" y="804545"/>
+              <a:off x="10454005" y="804545"/>
               <a:ext cx="3746500" cy="265430"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -875,7 +1555,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+      <mc:Fallback>
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
@@ -883,7 +1563,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10451465" y="804545"/>
+              <a:off x="10454005" y="804545"/>
               <a:ext cx="3746500" cy="265430"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -908,200 +1588,201 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
+            <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑆</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑎</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>×</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>ln</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑀</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑥</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑏</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>×</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>ln</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑁</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑦</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑐</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>×</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>ln</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑇</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑑</a:t>
@@ -1122,16 +1803,16 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3734435" cy="328295"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10446385" y="3048000"/>
+              <a:off x="10448925" y="3049270"/>
               <a:ext cx="3734435" cy="328295"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1515,7 +2196,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+      <mc:Fallback>
         <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
@@ -1523,7 +2204,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10446385" y="3048000"/>
+              <a:off x="10448925" y="3049270"/>
               <a:ext cx="3734435" cy="328295"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1651,217 +2332,217 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑆</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑎</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>×</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>ln</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑀</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑥</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑏</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>×</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>√(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑞</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>&amp;</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑁</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑦</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑐</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>×</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>ln</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑇</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-                  <a:latin typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>𝑑</a:t>
@@ -1895,15 +2576,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="8836025"/>
-          <a:ext cx="6708140" cy="5010150"/>
+          <a:off x="1104900" y="8837295"/>
+          <a:ext cx="6710680" cy="5010150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,25 +2597,25 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>14605</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>42545</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3746500" cy="265430"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10454005" y="814070"/>
+              <a:off x="14159230" y="1947545"/>
               <a:ext cx="3746500" cy="265430"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2223,15 +2904,15 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
+      <mc:Fallback>
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="文本框 1"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10454005" y="814070"/>
+              <a:off x="14159230" y="1947545"/>
               <a:ext cx="3746500" cy="265430"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2260,11 +2941,200 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                </a:rPr>
-                <a:t>𝑆=𝑎×ln⁡〖(𝑀+𝑥)〗+𝑏×ln⁡〖(𝑁+𝑦)〗+𝑐×ln⁡〖(𝑇)〗+𝑑</a:t>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
             </a:p>
@@ -2276,22 +3146,22 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3734435" cy="328295"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10448925" y="3070225"/>
+              <a:off x="15116175" y="3303270"/>
               <a:ext cx="3734435" cy="328295"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2675,15 +3545,15 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
+      <mc:Fallback>
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="文本框 2"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="10448925" y="3070225"/>
+              <a:off x="15116175" y="3303270"/>
               <a:ext cx="3734435" cy="328295"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2810,24 +3680,221 @@
             <a:p>
               <a:pPr algn="l"/>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                </a:rPr>
-                <a:t>𝑆=𝑎×ln⁡〖(𝑀+𝑥)〗+𝑏×</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑆</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑀</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
                 </a:rPr>
                 <a:t>√(</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
-                </a:rPr>
-                <a:t>𝑞&amp;(𝑁+𝑦))+𝑐×ln⁡〖(𝑇)〗+𝑑</a:t>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑞</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑦</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>ln</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="DejaVu Math TeX Gyre" panose="02000503000000000000" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
               </a:r>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
             </a:p>
@@ -2841,13 +3908,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1104900</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>690880</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519430</xdr:colOff>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2858,15 +3925,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104900" y="9105900"/>
-          <a:ext cx="6710680" cy="5286375"/>
+          <a:off x="1104900" y="8437245"/>
+          <a:ext cx="6710680" cy="5010150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3130,19 +4197,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:V25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="16.75" customWidth="1"/>
@@ -3157,302 +4224,302 @@
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" ht="18" customHeight="1">
-      <c r="C2" s="3" t="s">
+    <row r="2" ht="18" customHeight="1" spans="3:16">
+      <c r="C2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="P2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18" customHeight="1">
-      <c r="C3" s="3">
+    <row r="3" ht="18" customHeight="1" spans="3:16">
+      <c r="C3" s="7">
         <v>0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>0</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="7">
         <v>0</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="39">
         <v>2</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="19">
         <f t="shared" ref="G3:G8" si="0">$C$24*LN(D3+$C$25)</f>
-        <v>2208.5843671448984</v>
-      </c>
-      <c r="H3" s="12">
+        <v>2208.5843671449</v>
+      </c>
+      <c r="H3" s="19">
         <f t="shared" ref="H3:H8" si="1">$C$20*LN(C3+$C$21)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="42">
         <f t="shared" ref="I3:I8" si="2">$O$20*POWER(C3,$O$19)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="19">
         <f t="shared" ref="J3:J8" si="3">LN(F3)*$C$16+$C$17</f>
-        <v>668.38068805915509</v>
-      </c>
-      <c r="K3" s="13">
+        <v>668.380688059155</v>
+      </c>
+      <c r="K3" s="34">
         <f>SUM(G3,H3,J3)</f>
-        <v>2876.9650552040534</v>
-      </c>
-      <c r="L3" s="31">
+        <v>2876.96505520405</v>
+      </c>
+      <c r="L3" s="43">
         <f>SUM(G3,I3,J3)</f>
-        <v>2876.9650552040534</v>
+        <v>2876.96505520405</v>
       </c>
       <c r="P3">
         <v>5000</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="18" customHeight="1">
-      <c r="C4" s="3">
+    <row r="4" ht="18" customHeight="1" spans="3:16">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>400</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="19">
         <f t="shared" si="0"/>
-        <v>2590.7889451558731</v>
-      </c>
-      <c r="H4" s="12">
+        <v>2590.78894515587</v>
+      </c>
+      <c r="H4" s="19">
         <f t="shared" si="1"/>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="I4" s="30">
+        <v>693.147180559945</v>
+      </c>
+      <c r="I4" s="42">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="19">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="34">
         <f t="shared" ref="K4:K8" si="4">SUM(G4,H4,J4)</f>
-        <v>3383.9361257158184</v>
-      </c>
-      <c r="L4" s="31">
+        <v>3383.93612571582</v>
+      </c>
+      <c r="L4" s="43">
         <f t="shared" ref="L4:L8" si="5">SUM(G4,I4,J4)</f>
-        <v>3790.7889451558731</v>
+        <v>3790.78894515587</v>
       </c>
       <c r="P4">
         <v>4500</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="18" customHeight="1">
-      <c r="C5" s="3">
+    <row r="5" ht="18" customHeight="1" spans="3:16">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>200</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="19">
         <f t="shared" si="0"/>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="H5" s="12">
+        <v>2443.69903310575</v>
+      </c>
+      <c r="H5" s="19">
         <f t="shared" si="1"/>
-        <v>1098.6122886681098</v>
-      </c>
-      <c r="I5" s="30">
+        <v>1098.61228866811</v>
+      </c>
+      <c r="I5" s="42">
         <f t="shared" si="2"/>
-        <v>1385.9131548843604</v>
-      </c>
-      <c r="J5" s="12">
+        <v>1385.91315488436</v>
+      </c>
+      <c r="J5" s="19">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="34">
         <f t="shared" si="4"/>
-        <v>3642.3113217738564</v>
-      </c>
-      <c r="L5" s="31">
+        <v>3642.31132177386</v>
+      </c>
+      <c r="L5" s="43">
         <f t="shared" si="5"/>
-        <v>3929.6121879901066</v>
+        <v>3929.61218799011</v>
       </c>
       <c r="P5">
         <v>4200</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="C6" s="3">
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>1200</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="20">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="20">
         <v>1</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
-        <v>2911.7275341658478</v>
-      </c>
-      <c r="H6" s="14">
+        <v>2911.72753416585</v>
+      </c>
+      <c r="H6" s="23">
         <f t="shared" si="1"/>
-        <v>1386.2943611198905</v>
-      </c>
-      <c r="I6" s="32">
+        <v>1386.29436111989</v>
+      </c>
+      <c r="I6" s="44">
         <f t="shared" si="2"/>
-        <v>1586.4745273381491</v>
-      </c>
-      <c r="J6" s="14">
+        <v>1586.47452733815</v>
+      </c>
+      <c r="J6" s="23">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="34">
         <f t="shared" si="4"/>
-        <v>4398.0218952857385</v>
-      </c>
-      <c r="L6" s="31">
+        <v>4398.02189528574</v>
+      </c>
+      <c r="L6" s="43">
         <f t="shared" si="5"/>
-        <v>4598.2020615039964</v>
-      </c>
-      <c r="P6" s="1">
+        <v>4598.202061504</v>
+      </c>
+      <c r="P6" s="2">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="C7" s="3">
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:16">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="20">
         <v>3</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="19">
         <f t="shared" si="0"/>
-        <v>2214.9337068074146</v>
-      </c>
-      <c r="H7" s="12">
+        <v>2214.93370680741</v>
+      </c>
+      <c r="H7" s="19">
         <f t="shared" si="1"/>
-        <v>1609.4379124341003</v>
-      </c>
-      <c r="I7" s="30">
+        <v>1609.4379124341</v>
+      </c>
+      <c r="I7" s="42">
         <f t="shared" si="2"/>
-        <v>1746.1411571650192</v>
-      </c>
-      <c r="J7" s="12">
+        <v>1746.14115716502</v>
+      </c>
+      <c r="J7" s="19">
         <f t="shared" si="3"/>
-        <v>1000.8620767078501</v>
-      </c>
-      <c r="K7" s="13">
+        <v>1000.86207670785</v>
+      </c>
+      <c r="K7" s="34">
         <f t="shared" si="4"/>
-        <v>4825.233695949365</v>
-      </c>
-      <c r="L7" s="31">
+        <v>4825.23369594937</v>
+      </c>
+      <c r="L7" s="43">
         <f t="shared" si="5"/>
-        <v>4961.9369406802834</v>
-      </c>
-      <c r="P7" s="1">
+        <v>4961.93694068028</v>
+      </c>
+      <c r="P7" s="2">
         <v>3300</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="18" customHeight="1">
-      <c r="C8" s="3">
+    <row r="8" ht="18" customHeight="1" spans="3:12">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="7">
         <v>3000</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="20">
         <v>0</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="40">
         <v>1</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="19">
         <f t="shared" si="0"/>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="H8" s="12">
+        <v>3234.56411012951</v>
+      </c>
+      <c r="H8" s="19">
         <f t="shared" si="1"/>
-        <v>1791.759469228055</v>
-      </c>
-      <c r="I8" s="30">
+        <v>1791.75946922805</v>
+      </c>
+      <c r="I8" s="42">
         <f t="shared" si="2"/>
-        <v>1880.9735413443666</v>
-      </c>
-      <c r="J8" s="12">
+        <v>1880.97354134437</v>
+      </c>
+      <c r="J8" s="19">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="34">
         <f t="shared" si="4"/>
-        <v>5126.3235793575677</v>
-      </c>
-      <c r="L8" s="31">
+        <v>5126.32357935757</v>
+      </c>
+      <c r="L8" s="43">
         <f t="shared" si="5"/>
-        <v>5215.5376514738791</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="K9" s="22">
+        <v>5215.53765147388</v>
+      </c>
+    </row>
+    <row r="9" spans="11:12">
+      <c r="K9" s="38">
         <f>SUM(K4:K8)</f>
-        <v>21375.826618082348</v>
-      </c>
-      <c r="L9" s="22">
+        <v>21375.8266180823</v>
+      </c>
+      <c r="L9" s="38">
         <f>SUM(L4:L8)</f>
-        <v>22496.077786804137</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>22496.0777868041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="16">
         <v>820</v>
       </c>
       <c r="D16">
@@ -3465,11 +4532,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="16">
         <v>100</v>
       </c>
       <c r="D17">
@@ -3478,20 +4545,20 @@
       </c>
       <c r="E17">
         <f t="shared" ref="E17:F17" si="6">$C$16*LN(E16)+100</f>
-        <v>668.38068805915509</v>
+        <v>668.380688059155</v>
       </c>
       <c r="F17">
         <f t="shared" si="6"/>
-        <v>1000.8620767078501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>1000.86207670785</v>
+      </c>
+    </row>
+    <row r="19" spans="14:15">
       <c r="N19" t="s">
         <v>14</v>
       </c>
-      <c r="O19" s="33">
+      <c r="O19" s="45">
         <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -3501,7 +4568,7 @@
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="16">
         <v>1000</v>
       </c>
       <c r="D20">
@@ -3528,7 +4595,7 @@
       <c r="N20" t="s">
         <v>16</v>
       </c>
-      <c r="O20" s="26">
+      <c r="O20" s="16">
         <v>1100</v>
       </c>
       <c r="P20">
@@ -3550,41 +4617,41 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="2:22">
       <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="16">
         <v>1</v>
       </c>
       <c r="D21">
         <f>LN(D20+$C$21)*$C$20</f>
-        <v>693.14718055994524</v>
+        <v>693.147180559945</v>
       </c>
       <c r="E21">
         <f t="shared" ref="E21:H21" si="7">LN(E20+$C$21)*$C$20</f>
-        <v>1098.6122886681098</v>
+        <v>1098.61228866811</v>
       </c>
       <c r="F21">
         <f t="shared" si="7"/>
-        <v>1386.2943611198905</v>
+        <v>1386.29436111989</v>
       </c>
       <c r="G21">
         <f t="shared" si="7"/>
-        <v>1609.4379124341003</v>
+        <v>1609.4379124341</v>
       </c>
       <c r="H21">
         <f t="shared" si="7"/>
-        <v>1791.759469228055</v>
+        <v>1791.75946922805</v>
       </c>
       <c r="J21">
         <f>H21/D21</f>
-        <v>2.5849625007211565</v>
+        <v>2.58496250072116</v>
       </c>
       <c r="N21" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="26">
+      <c r="O21" s="16">
         <v>1</v>
       </c>
       <c r="P21">
@@ -3593,33 +4660,33 @@
       </c>
       <c r="Q21">
         <f>POWER(Q20,$O$19)*$O$20</f>
-        <v>1385.9131548843604</v>
+        <v>1385.91315488436</v>
       </c>
       <c r="R21">
         <f t="shared" ref="R21:T21" si="8">POWER(R20,$O$19)*$O$20</f>
-        <v>1586.4745273381491</v>
+        <v>1586.47452733815</v>
       </c>
       <c r="S21">
         <f t="shared" si="8"/>
-        <v>1746.1411571650192</v>
+        <v>1746.14115716502</v>
       </c>
       <c r="T21">
         <f t="shared" si="8"/>
-        <v>1880.9735413443666</v>
+        <v>1880.97354134437</v>
       </c>
       <c r="V21">
         <f>T21/P21</f>
-        <v>1.7099759466766968</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22">
+        <v>1.7099759466767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
         <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="16">
         <v>400</v>
       </c>
       <c r="D24">
@@ -3662,82 +4729,83 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="2:18">
       <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C25" s="16">
         <v>250</v>
       </c>
       <c r="D25">
         <f>LN(D24+$C$25)*$C$24</f>
-        <v>2224.2726524062109</v>
+        <v>2224.27265240621</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:O25" si="9">LN(E24+$C$25)*$C$24</f>
-        <v>2239.3687835993501</v>
+        <v>2239.36878359935</v>
       </c>
       <c r="F25">
         <f t="shared" si="9"/>
-        <v>2253.9158412676998</v>
+        <v>2253.9158412677</v>
       </c>
       <c r="G25">
         <f t="shared" si="9"/>
-        <v>2281.5129898624805</v>
+        <v>2281.51298986248</v>
       </c>
       <c r="H25">
         <f t="shared" si="9"/>
-        <v>2343.1732617933835</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="I25">
         <f t="shared" si="9"/>
-        <v>2443.6990331057464</v>
+        <v>2443.69903310575</v>
       </c>
       <c r="J25">
         <f t="shared" si="9"/>
-        <v>2648.0292826121422</v>
+        <v>2648.02928261214</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>2698.0945397937448</v>
+        <v>2698.09453979374</v>
       </c>
       <c r="L25">
         <f t="shared" si="9"/>
-        <v>2782.6181772606278</v>
+        <v>2782.61817726063</v>
       </c>
       <c r="M25">
         <f t="shared" si="9"/>
-        <v>2852.3595321185385</v>
+        <v>2852.35953211854</v>
       </c>
       <c r="N25">
         <f t="shared" si="9"/>
-        <v>3087.4741980793865</v>
+        <v>3087.47419807939</v>
       </c>
       <c r="O25">
         <f t="shared" si="9"/>
-        <v>3234.5641101295128</v>
+        <v>3234.56411012951</v>
       </c>
       <c r="R25">
         <f>O25/D25</f>
-        <v>1.4542120574248718</v>
+        <v>1.45421205742487</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="10" width="13.625" customWidth="1"/>
@@ -3789,7 +4857,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>2208.5843671449002</v>
+        <v>2208.5843671449</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3798,13 +4866,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>668.38068805915498</v>
+        <v>668.380688059155</v>
       </c>
       <c r="I2">
-        <v>2876.9650552040498</v>
+        <v>2876.96505520405</v>
       </c>
       <c r="J2">
-        <v>2876.9650552040498</v>
+        <v>2876.96505520405</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3821,10 +4889,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>2343.1732617933799</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F3">
-        <v>693.14718055994501</v>
+        <v>693.147180559945</v>
       </c>
       <c r="G3">
         <v>1100</v>
@@ -3833,10 +4901,10 @@
         <v>100</v>
       </c>
       <c r="I3">
-        <v>3136.3204423533298</v>
+        <v>3136.32044235333</v>
       </c>
       <c r="J3">
-        <v>3543.1732617933799</v>
+        <v>3543.17326179338</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3853,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>2343.1732617933799</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F4">
-        <v>1098.6122886681101</v>
+        <v>1098.61228866811</v>
       </c>
       <c r="G4">
         <v>1385.91315488436</v>
@@ -3865,10 +4933,10 @@
         <v>100</v>
       </c>
       <c r="I4">
-        <v>3541.7855504614899</v>
+        <v>3541.78555046149</v>
       </c>
       <c r="J4">
-        <v>3829.0864166777401</v>
+        <v>3829.08641667774</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3885,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>2343.1732617933799</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F5">
         <v>1386.29436111989</v>
@@ -3897,10 +4965,10 @@
         <v>100</v>
       </c>
       <c r="I5">
-        <v>3829.4676229132701</v>
+        <v>3829.46762291327</v>
       </c>
       <c r="J5">
-        <v>4029.6477891315299</v>
+        <v>4029.64778913153</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3917,19 +4985,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>2343.1732617933799</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F6">
-        <v>1609.4379124341001</v>
+        <v>1609.4379124341</v>
       </c>
       <c r="G6">
-        <v>1746.1411571650201</v>
+        <v>1746.14115716502</v>
       </c>
       <c r="H6">
         <v>100</v>
       </c>
       <c r="I6">
-        <v>4052.6111742274802</v>
+        <v>4052.61117422748</v>
       </c>
       <c r="J6">
         <v>4189.3144189584</v>
@@ -3949,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>2343.1732617933799</v>
+        <v>2343.17326179338</v>
       </c>
       <c r="F7">
         <v>1791.75946922805</v>
@@ -3961,18 +5029,18 @@
         <v>100</v>
       </c>
       <c r="I7">
-        <v>4234.9327310214403</v>
+        <v>4234.93273102144</v>
       </c>
       <c r="J7">
-        <v>4324.1468031377499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>4324.14680313775</v>
+      </c>
+    </row>
+    <row r="8" spans="9:10">
       <c r="I8">
-        <v>21672.082576181099</v>
+        <v>21672.0825761811</v>
       </c>
       <c r="J8">
-        <v>22792.333744902899</v>
+        <v>22792.3337449029</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4021,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>2208.5843671449002</v>
+        <v>2208.5843671449</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -4030,13 +5098,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>668.38068805915498</v>
+        <v>668.380688059155</v>
       </c>
       <c r="I11">
-        <v>2876.9650552040498</v>
+        <v>2876.96505520405</v>
       </c>
       <c r="J11">
-        <v>2876.9650552040498</v>
+        <v>2876.96505520405</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4056,7 +5124,7 @@
         <v>3234.56411012951</v>
       </c>
       <c r="F12">
-        <v>693.14718055994501</v>
+        <v>693.147180559945</v>
       </c>
       <c r="G12">
         <v>1100</v>
@@ -4065,10 +5133,10 @@
         <v>100</v>
       </c>
       <c r="I12">
-        <v>4027.7112906894599</v>
+        <v>4027.71129068946</v>
       </c>
       <c r="J12">
-        <v>4434.5641101295096</v>
+        <v>4434.56411012951</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4088,7 +5156,7 @@
         <v>3234.56411012951</v>
       </c>
       <c r="F13">
-        <v>1098.6122886681101</v>
+        <v>1098.61228866811</v>
       </c>
       <c r="G13">
         <v>1385.91315488436</v>
@@ -4097,10 +5165,10 @@
         <v>100</v>
       </c>
       <c r="I13">
-        <v>4433.1763987976201</v>
+        <v>4433.17639879762</v>
       </c>
       <c r="J13">
-        <v>4720.4772650138702</v>
+        <v>4720.47726501387</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4129,7 +5197,7 @@
         <v>100</v>
       </c>
       <c r="I14">
-        <v>4720.8584712494003</v>
+        <v>4720.8584712494</v>
       </c>
       <c r="J14">
         <v>4921.03863746766</v>
@@ -4152,19 +5220,19 @@
         <v>3234.56411012951</v>
       </c>
       <c r="F15">
-        <v>1609.4379124341001</v>
+        <v>1609.4379124341</v>
       </c>
       <c r="G15">
-        <v>1746.1411571650201</v>
+        <v>1746.14115716502</v>
       </c>
       <c r="H15">
         <v>100</v>
       </c>
       <c r="I15">
-        <v>4944.0020225636099</v>
+        <v>4944.00202256361</v>
       </c>
       <c r="J15">
-        <v>5080.7052672945301</v>
+        <v>5080.70526729453</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4193,7 +5261,7 @@
         <v>100</v>
       </c>
       <c r="I16">
-        <v>5126.3235793575705</v>
+        <v>5126.32357935757</v>
       </c>
       <c r="J16">
         <v>5215.53765147388</v>
@@ -4201,27 +5269,28 @@
     </row>
     <row r="17" spans="9:10">
       <c r="I17">
-        <v>26129.036817861699</v>
+        <v>26129.0368178617</v>
       </c>
       <c r="J17">
-        <v>27249.287986583498</v>
+        <v>27249.2879865835</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -4241,1749 +5310,2081 @@
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75">
-      <c r="B1" s="36" t="s">
+    <row r="1" ht="27" spans="2:8">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="10:11">
+      <c r="J2" s="8"/>
+      <c r="K2" s="37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="38" t="s">
+    <row r="3" ht="18" customHeight="1" spans="1:8">
+      <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="3">
+    <row r="4" ht="18" customHeight="1" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="7">
         <v>400</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="19">
         <f>$C$35*LN(C4+$C$36)</f>
-        <v>2590.7889451558731</v>
-      </c>
-      <c r="F4" s="12">
+        <v>2590.78894515587</v>
+      </c>
+      <c r="F4" s="19">
         <f>$C$26*LN(B4+$C$27)</f>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="G4" s="12">
+        <v>693.147180559945</v>
+      </c>
+      <c r="G4" s="19">
         <f>LN(D4)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="34">
         <f>SUM(E4,F4,G4)</f>
-        <v>3383.9361257158184</v>
-      </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="3">
+        <v>3383.93612571582</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="7">
         <v>200</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="7">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="19">
         <f>$C$35*LN(C5+$C$36)</f>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="F5" s="12">
+        <v>2443.69903310575</v>
+      </c>
+      <c r="F5" s="19">
         <f>$C$26*LN(B5+$C$27)</f>
-        <v>1098.6122886681098</v>
-      </c>
-      <c r="G5" s="12">
+        <v>1098.61228866811</v>
+      </c>
+      <c r="G5" s="19">
         <f>LN(D5)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="34">
         <f>SUM(E5,F5,G5)</f>
-        <v>3642.3113217738564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="3">
+        <v>3642.31132177386</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="7">
         <v>1200</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="23">
         <f>$C$35*LN(C6+$C$36)</f>
-        <v>2911.7275341658478</v>
-      </c>
-      <c r="F6" s="14">
+        <v>2911.72753416585</v>
+      </c>
+      <c r="F6" s="23">
         <f>$C$26*LN(B6+$C$27)</f>
-        <v>1386.2943611198905</v>
-      </c>
-      <c r="G6" s="14">
+        <v>1386.29436111989</v>
+      </c>
+      <c r="G6" s="23">
         <f>LN(D6)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="34">
         <f>SUM(E6,F6,G6)</f>
-        <v>4398.0218952857385</v>
-      </c>
-      <c r="J6" s="1" t="str">
+        <v>4398.02189528574</v>
+      </c>
+      <c r="J6" s="2" t="str">
         <f>"a="&amp;C35</f>
         <v>a=400</v>
       </c>
-      <c r="K6" s="1" t="str">
+      <c r="K6" s="2" t="str">
         <f>"b="&amp;C26</f>
         <v>b=1000</v>
       </c>
-      <c r="L6" s="1" t="str">
+      <c r="L6" s="2" t="str">
         <f>"c="&amp;C22</f>
         <v>c=820</v>
       </c>
-      <c r="M6" s="1" t="str">
+      <c r="M6" s="2" t="str">
         <f>"d="&amp;C23</f>
         <v>d=100</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="3">
+    <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
         <v>4</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="20">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="19">
         <f>$C$35*LN(C7+$C$36)</f>
-        <v>2214.9337068074146</v>
-      </c>
-      <c r="F7" s="12">
+        <v>2214.93370680741</v>
+      </c>
+      <c r="F7" s="19">
         <f>$C$26*LN(B7+$C$27)</f>
-        <v>1609.4379124341003</v>
-      </c>
-      <c r="G7" s="12">
+        <v>1609.4379124341</v>
+      </c>
+      <c r="G7" s="19">
         <f>LN(D7)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="34">
         <f>SUM(E7,F7,G7)</f>
-        <v>3924.371619241515</v>
-      </c>
-      <c r="J7" s="1" t="str">
+        <v>3924.37161924151</v>
+      </c>
+      <c r="J7" s="2" t="str">
         <f>"x="&amp;C36</f>
         <v>x=250</v>
       </c>
-      <c r="K7" s="1" t="str">
+      <c r="K7" s="2" t="str">
         <f>"y="&amp;C27</f>
         <v>y=1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="3">
+    <row r="8" ht="18" customHeight="1" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="7">
         <v>3000</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="19">
         <f>$C$35*LN(C8+$C$36)</f>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F8" s="12">
+        <v>3234.56411012951</v>
+      </c>
+      <c r="F8" s="19">
         <f>$C$26*LN(B8+$C$27)</f>
-        <v>1791.759469228055</v>
-      </c>
-      <c r="G8" s="12">
+        <v>1791.75946922805</v>
+      </c>
+      <c r="G8" s="19">
         <f>LN(D8)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="34">
         <f>SUM(E8,F8,G8)</f>
-        <v>5126.3235793575677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="E9" s="15">
+        <v>5126.32357935757</v>
+      </c>
+    </row>
+    <row r="9" ht="20.1" customHeight="1" spans="5:10">
+      <c r="E9" s="22">
         <f>SUM(E4:E8)</f>
-        <v>13395.713329364395</v>
-      </c>
-      <c r="F9" s="15">
+        <v>13395.7133293644</v>
+      </c>
+      <c r="F9" s="22">
         <f>SUM(F4:F8)</f>
-        <v>6579.2512120101001</v>
-      </c>
-      <c r="G9" s="15">
+        <v>6579.2512120101</v>
+      </c>
+      <c r="G9" s="22">
         <f>SUM(G4:G8)</f>
         <v>500</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="22">
         <f>SUM(H4:H8)</f>
-        <v>20474.964541374495</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="A12" s="38" t="s">
+        <v>20474.9645413745</v>
+      </c>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+    </row>
+    <row r="10" spans="9:10">
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:8">
+      <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="3">
+    <row r="13" ht="18" customHeight="1" spans="1:8">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="7">
         <v>400</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="19">
         <f t="shared" ref="E13:E17" si="0">$C$35*LN(C13+$C$36)</f>
-        <v>2590.7889451558731</v>
-      </c>
-      <c r="F13" s="18">
+        <v>2590.78894515587</v>
+      </c>
+      <c r="F13" s="28">
         <f>$C$31*POWER((B13+$C$32),$C$30)</f>
         <v>1100</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="19">
         <f t="shared" ref="G13:G17" si="1">LN(D13)*$C$22+$C$23</f>
         <v>100</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="34">
         <f>SUM(E13,F13,G13)</f>
-        <v>3790.7889451558731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="3">
+        <v>3790.78894515587</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="7">
         <v>200</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="7">
         <v>1</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="19">
         <f t="shared" si="0"/>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="F14" s="18">
+        <v>2443.69903310575</v>
+      </c>
+      <c r="F14" s="28">
         <f>$C$31*POWER((B14+$C$32),$C$30)</f>
-        <v>1385.9131548843604</v>
-      </c>
-      <c r="G14" s="12">
+        <v>1385.91315488436</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="34">
         <f>SUM(E14,F14,G14)</f>
-        <v>3929.6121879901066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="3">
+        <v>3929.61218799011</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
         <v>3</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="7">
         <v>1200</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="20">
         <v>1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="23">
         <f t="shared" si="0"/>
-        <v>2911.7275341658478</v>
-      </c>
-      <c r="F15" s="18">
+        <v>2911.72753416585</v>
+      </c>
+      <c r="F15" s="28">
         <f>$C$31*POWER((B15+$C$32),$C$30)</f>
-        <v>1586.4745273381491</v>
-      </c>
-      <c r="G15" s="14">
+        <v>1586.47452733815</v>
+      </c>
+      <c r="G15" s="23">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="34">
         <f>SUM(E15,F15,G15)</f>
-        <v>4598.2020615039964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="3">
+        <v>4598.202061504</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
         <v>4</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="7">
         <v>4</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="20">
         <v>1</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="19">
         <f t="shared" si="0"/>
-        <v>2214.9337068074146</v>
-      </c>
-      <c r="F16" s="18">
+        <v>2214.93370680741</v>
+      </c>
+      <c r="F16" s="28">
         <f>$C$31*POWER((B16+$C$32),$C$30)</f>
-        <v>1746.1411571650192</v>
-      </c>
-      <c r="G16" s="12">
+        <v>1746.14115716502</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="34">
         <f>SUM(E16,F16,G16)</f>
-        <v>4061.0748639724338</v>
-      </c>
-      <c r="J16" s="1" t="str">
+        <v>4061.07486397243</v>
+      </c>
+      <c r="J16" s="2" t="str">
         <f>"a="&amp;C35</f>
         <v>a=400</v>
       </c>
-      <c r="K16" s="1" t="str">
+      <c r="K16" s="2" t="str">
         <f>"b="&amp;C31</f>
         <v>b=1100</v>
       </c>
-      <c r="L16" s="1" t="str">
+      <c r="L16" s="2" t="str">
         <f>"c="&amp;C22</f>
         <v>c=820</v>
       </c>
-      <c r="M16" s="1" t="str">
+      <c r="M16" s="2" t="str">
         <f>"d="&amp;C23</f>
         <v>d=100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="3">
+    <row r="17" ht="18" customHeight="1" spans="1:13">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
         <v>5</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="7">
         <v>3000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="21">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="19">
         <f t="shared" si="0"/>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F17" s="18">
+        <v>3234.56411012951</v>
+      </c>
+      <c r="F17" s="28">
         <f>$C$31*POWER((B17+$C$32),$C$30)</f>
-        <v>1880.9735413443666</v>
-      </c>
-      <c r="G17" s="12">
+        <v>1880.97354134437</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="34">
         <f>SUM(E17,F17,G17)</f>
-        <v>5215.5376514738791</v>
-      </c>
-      <c r="J17" s="1" t="str">
+        <v>5215.53765147388</v>
+      </c>
+      <c r="J17" s="2" t="str">
         <f>"x="&amp;C36</f>
         <v>x=250</v>
       </c>
-      <c r="K17" s="1" t="str">
+      <c r="K17" s="2" t="str">
         <f>"y="&amp;C32</f>
         <v>y=0</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="L17" s="2" t="str">
         <f>"q="&amp;1/C30</f>
         <v>q=3</v>
       </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="E18" s="15">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="22">
         <f>SUM(E13:E17)</f>
-        <v>13395.713329364395</v>
-      </c>
-      <c r="F18" s="15">
+        <v>13395.7133293644</v>
+      </c>
+      <c r="F18" s="22">
         <f>SUM(F13:F17)</f>
-        <v>7699.5023807318958</v>
-      </c>
-      <c r="G18" s="15">
+        <v>7699.5023807319</v>
+      </c>
+      <c r="G18" s="22">
         <f>SUM(G13:G17)</f>
         <v>500</v>
       </c>
-      <c r="H18" s="15">
+      <c r="H18" s="22">
         <f>SUM(H13:H17)</f>
-        <v>21595.215710096287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1">
-      <c r="A21" s="37" t="s">
+        <v>21595.2157100963</v>
+      </c>
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:8">
+      <c r="A21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="35" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11">
         <v>820</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="7">
         <v>3</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="23" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="35"/>
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:6">
+      <c r="A23" s="10"/>
+      <c r="B23" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="11">
         <v>100</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="12">
         <f>$C$22*LN(D22)+$C$23</f>
         <v>100</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="12">
         <f>$C$22*LN(E22)+$C$23</f>
-        <v>668.38068805915509</v>
-      </c>
-      <c r="F23" s="8">
+        <v>668.380688059155</v>
+      </c>
+      <c r="F23" s="12">
         <f>$C$22*LN(F22)+$C$23</f>
-        <v>1000.8620767078501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="35" t="s">
+        <v>1000.86207670785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="11">
         <v>1000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>1</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="7">
         <v>3</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="7">
         <v>4</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="7">
         <v>5</v>
       </c>
       <c r="J26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="35"/>
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:10">
+      <c r="A27" s="10"/>
+      <c r="B27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="11">
         <v>1</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="12">
         <f>LN(D26+$C$27)*$C$26</f>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="E27" s="8">
+        <v>693.147180559945</v>
+      </c>
+      <c r="E27" s="12">
         <f>LN(E26+$C$27)*$C$26</f>
-        <v>1098.6122886681098</v>
-      </c>
-      <c r="F27" s="8">
+        <v>1098.61228866811</v>
+      </c>
+      <c r="F27" s="12">
         <f>LN(F26+$C$27)*$C$26</f>
-        <v>1386.2943611198905</v>
-      </c>
-      <c r="G27" s="8">
+        <v>1386.29436111989</v>
+      </c>
+      <c r="G27" s="12">
         <f>LN(G26+$C$27)*$C$26</f>
-        <v>1609.4379124341003</v>
-      </c>
-      <c r="H27" s="8">
+        <v>1609.4379124341</v>
+      </c>
+      <c r="H27" s="12">
         <f>LN(H26+$C$27)*$C$26</f>
-        <v>1791.759469228055</v>
-      </c>
-      <c r="J27" s="24">
+        <v>1791.75946922805</v>
+      </c>
+      <c r="J27" s="30">
         <f>H27/D27</f>
-        <v>2.5849625007211565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="35" t="s">
+        <v>2.58496250072116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="17">
         <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="35"/>
-      <c r="B31" s="6" t="s">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10"/>
+      <c r="B31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="11">
         <v>1100</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>1</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>2</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="7">
         <v>3</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="7">
         <v>4</v>
       </c>
-      <c r="H31" s="6">
+      <c r="H31" s="7">
         <v>5</v>
       </c>
       <c r="J31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="35"/>
-      <c r="B32" s="6" t="s">
+    <row r="32" spans="1:10">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="11">
         <v>0</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="12">
         <f t="shared" ref="D32:H32" si="2">POWER(D31,$C$30)*$C$31</f>
         <v>1100</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="12">
         <f t="shared" si="2"/>
-        <v>1385.9131548843604</v>
-      </c>
-      <c r="F32" s="8">
+        <v>1385.91315488436</v>
+      </c>
+      <c r="F32" s="12">
         <f t="shared" si="2"/>
-        <v>1586.4745273381491</v>
-      </c>
-      <c r="G32" s="8">
+        <v>1586.47452733815</v>
+      </c>
+      <c r="G32" s="12">
         <f t="shared" si="2"/>
-        <v>1746.1411571650192</v>
-      </c>
-      <c r="H32" s="8">
+        <v>1746.14115716502</v>
+      </c>
+      <c r="H32" s="12">
         <f t="shared" si="2"/>
-        <v>1880.9735413443666</v>
-      </c>
-      <c r="J32" s="24">
+        <v>1880.97354134437</v>
+      </c>
+      <c r="J32" s="30">
         <f>H32/D32</f>
-        <v>1.7099759466766968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="J34" s="25"/>
+        <v>1.7099759466767</v>
+      </c>
+    </row>
+    <row r="33" spans="10:10">
+      <c r="J33" s="31"/>
+    </row>
+    <row r="34" spans="10:10">
+      <c r="J34" s="31"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="11">
         <v>400</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>10</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>20</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="7">
         <v>30</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35" s="7">
         <v>50</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="7">
         <v>100</v>
       </c>
-      <c r="J35" s="25" t="s">
+      <c r="J35" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="35"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="11">
         <v>250</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="12">
         <f>LN(D35+$C$36)*$C$35</f>
-        <v>2224.2726524062109</v>
-      </c>
-      <c r="E36" s="8">
+        <v>2224.27265240621</v>
+      </c>
+      <c r="E36" s="12">
         <f>LN(E35+$C$36)*$C$35</f>
-        <v>2239.3687835993501</v>
-      </c>
-      <c r="F36" s="8">
+        <v>2239.36878359935</v>
+      </c>
+      <c r="F36" s="12">
         <f>LN(F35+$C$36)*$C$35</f>
-        <v>2253.9158412676998</v>
-      </c>
-      <c r="G36" s="8">
+        <v>2253.9158412677</v>
+      </c>
+      <c r="G36" s="12">
         <f>LN(G35+$C$36)*$C$35</f>
-        <v>2281.5129898624805</v>
-      </c>
-      <c r="H36" s="8">
+        <v>2281.51298986248</v>
+      </c>
+      <c r="H36" s="12">
         <f>LN(H35+$C$36)*$C$35</f>
-        <v>2343.1732617933835</v>
-      </c>
-      <c r="J36" s="24">
+        <v>2343.17326179338</v>
+      </c>
+      <c r="J36" s="30">
         <f>E42/D36</f>
-        <v>1.4542120574248718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="35"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="35"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6">
+        <v>1.45421205742487</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7">
         <v>200</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>500</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="7">
         <v>600</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="7">
         <v>800</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="35"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8">
+    <row r="39" spans="1:8">
+      <c r="A39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="12">
         <f>LN(D38+$C$36)*$C$35</f>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="E39" s="8">
+        <v>2443.69903310575</v>
+      </c>
+      <c r="E39" s="12">
         <f>LN(E38+$C$36)*$C$35</f>
-        <v>2648.0292826121422</v>
-      </c>
-      <c r="F39" s="8">
+        <v>2648.02928261214</v>
+      </c>
+      <c r="F39" s="12">
         <f>LN(F38+$C$36)*$C$35</f>
-        <v>2698.0945397937448</v>
-      </c>
-      <c r="G39" s="8">
+        <v>2698.09453979374</v>
+      </c>
+      <c r="G39" s="12">
         <f>LN(G38+$C$36)*$C$35</f>
-        <v>2782.6181772606278</v>
-      </c>
-      <c r="H39" s="8">
+        <v>2782.61817726063</v>
+      </c>
+      <c r="H39" s="12">
         <f>LN(H38+$C$36)*$C$35</f>
-        <v>2852.3595321185385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="35"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="35"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6">
+        <v>2852.35953211854</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7">
         <v>2000</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="7">
         <v>3000</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="35"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8">
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="12">
         <f>LN(D41+$C$36)*$C$35</f>
-        <v>3087.4741980793865</v>
-      </c>
-      <c r="E42" s="8">
+        <v>3087.47419807939</v>
+      </c>
+      <c r="E42" s="12">
         <f>LN(E41+$C$36)*$C$35</f>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+        <v>3234.56411012951</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:A42"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="A21:H21"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A35:A42"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="8.75" customWidth="1"/>
     <col min="12" max="12" width="11.25" customWidth="1"/>
     <col min="13" max="13" width="10.125" customWidth="1"/>
     <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="9.375"/>
+    <col min="16" max="16" width="12.75" customWidth="1"/>
+    <col min="17" max="19" width="12.625"/>
     <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="25" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27.75">
-      <c r="B1" s="36" t="s">
+    <row r="1" ht="27" spans="2:8">
+      <c r="B1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-    </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1">
-      <c r="J2" s="19"/>
-      <c r="K2" s="20" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="27" spans="2:8">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="27" spans="2:8">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="18:19">
+      <c r="R4" s="8"/>
+      <c r="S4" s="37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1">
-      <c r="A3" s="38" t="s">
+    <row r="5" ht="54" customHeight="1" spans="1:16">
+      <c r="A5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:24">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>300</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <f>$C$40*LN($C$42*C6*0.6+$C$41)</f>
+        <v>823.695533744927</v>
+      </c>
+      <c r="H6" s="19">
+        <f>$C$45*LN($C$47*E6*0.4+$C$46)</f>
+        <v>45.3314741228013</v>
+      </c>
+      <c r="I6" s="26">
+        <f>H6+G6</f>
+        <v>869.027007867728</v>
+      </c>
+      <c r="J6" s="19">
+        <f>$C$28*LN(B6+$C$29)</f>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="K6" s="19">
+        <f>$C$30*LN(D6+$C$31)</f>
+        <v>970.406052783923</v>
+      </c>
+      <c r="L6" s="26">
+        <f>J6+K6</f>
+        <v>2069.01834145203</v>
+      </c>
+      <c r="M6" s="26">
+        <f>LN(F6)*$C$24+$C$25</f>
+        <v>80</v>
+      </c>
+      <c r="N6" s="26">
+        <v>2500</v>
+      </c>
+      <c r="O6" s="34">
+        <f>SUM(I6,L6,M6,)</f>
+        <v>3018.04534931976</v>
+      </c>
+      <c r="P6" s="35">
+        <f>O6+2500</f>
+        <v>5518.04534931976</v>
+      </c>
+      <c r="R6" s="2"/>
+      <c r="X6" t="e">
+        <f>G6/G8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:24">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="19">
+        <f>$C$40*LN($C$42*C7*0.6+$C$41)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <f>$C$45*LN($C$47*E7*0.4+$C$46)</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
+        <f>H7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="19">
+        <f>$C$28*LN(B7+$C$29)</f>
+        <v>693.147180559945</v>
+      </c>
+      <c r="K7" s="19">
+        <f>$C$30*LN(D7+$C$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <f>J7+K7</f>
+        <v>693.147180559945</v>
+      </c>
+      <c r="M7" s="26">
+        <f>LN(F7)*$C$24+$C$25</f>
+        <v>495.888308335967</v>
+      </c>
+      <c r="N7" s="26">
+        <v>2500</v>
+      </c>
+      <c r="O7" s="34">
+        <f>SUM(I7,L7,M7,)</f>
+        <v>1189.03548889591</v>
+      </c>
+      <c r="P7" s="35">
+        <f>O7+2500</f>
+        <v>3689.03548889591</v>
+      </c>
+      <c r="X7" t="e">
+        <f>G7/G8</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="18" customHeight="1" spans="1:20">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5000</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="19">
+        <f>$C$40*LN($C$42*C8*0.6+$C$41)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <f>$C$45*LN($C$47*E8*0.4+$C$46)</f>
+        <v>439.444915467244</v>
+      </c>
+      <c r="I8" s="26">
+        <f>H8+G8</f>
+        <v>439.444915467244</v>
+      </c>
+      <c r="J8" s="23">
+        <f>$C$28*LN(B8+$C$29)</f>
+        <v>693.147180559945</v>
+      </c>
+      <c r="K8" s="19">
+        <f>$C$30*LN(D8+$C$31)</f>
+        <v>1126.60653870387</v>
+      </c>
+      <c r="L8" s="26">
+        <f>J8+K8</f>
+        <v>1819.75371926382</v>
+      </c>
+      <c r="M8" s="26">
+        <f>LN(F8)*$C$24+$C$25</f>
+        <v>80</v>
+      </c>
+      <c r="N8" s="26">
+        <v>2500</v>
+      </c>
+      <c r="O8" s="34">
+        <f>SUM(I8,L8,M8,)</f>
+        <v>2339.19863473106</v>
+      </c>
+      <c r="P8" s="35">
+        <f>O8+2500</f>
+        <v>4839.19863473106</v>
+      </c>
+      <c r="Q8" s="2" t="str">
+        <f>"a="&amp;C40</f>
+        <v>a=800</v>
+      </c>
+      <c r="R8" s="2" t="str">
+        <f>"b="&amp;C28</f>
+        <v>b=1000</v>
+      </c>
+      <c r="S8" s="2" t="str">
+        <f>"c="&amp;C24</f>
+        <v>c=600</v>
+      </c>
+      <c r="T8" s="2" t="str">
+        <f>"d="&amp;C25</f>
+        <v>d=80</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="18" customHeight="1" spans="1:18">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7">
+        <v>5000</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <f>$C$40*LN($C$42*C9*0.6+$C$41)</f>
+        <v>1109.03548889591</v>
+      </c>
+      <c r="H9" s="19">
+        <f>$C$45*LN($C$47*E9*0.4+$C$46)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <f>H9+G9</f>
+        <v>1109.03548889591</v>
+      </c>
+      <c r="J9" s="19">
+        <f>$C$28*LN(B9+$C$29)</f>
+        <v>1791.75946922805</v>
+      </c>
+      <c r="K9" s="19">
+        <f>$C$30*LN(D9+$C$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <f>J9+K9</f>
+        <v>1791.75946922805</v>
+      </c>
+      <c r="M9" s="26">
+        <f>LN(F9)*$C$24+$C$25</f>
+        <v>80</v>
+      </c>
+      <c r="N9" s="26">
+        <v>2500</v>
+      </c>
+      <c r="O9" s="34">
+        <f>SUM(I9,L9,M9,)</f>
+        <v>2980.79495812397</v>
+      </c>
+      <c r="P9" s="35">
+        <f>O9+2500</f>
+        <v>5480.79495812397</v>
+      </c>
+      <c r="Q9" s="2" t="str">
+        <f>"x="&amp;C41</f>
+        <v>x=1</v>
+      </c>
+      <c r="R9" s="2" t="str">
+        <f>"y="&amp;C29</f>
+        <v>y=2</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:16">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19">
+        <f>$C$40*LN($C$42*C10*0.6+$C$41)</f>
+        <v>823.695533744927</v>
+      </c>
+      <c r="H10" s="19">
+        <f>$C$45*LN($C$47*E10*0.4+$C$46)</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <f>H10+G10</f>
+        <v>823.695533744927</v>
+      </c>
+      <c r="J10" s="19">
+        <f>$C$28*LN(B10+$C$29)</f>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="K10" s="19">
+        <f>$C$30*LN(D10+$C$31)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <f>J10+K10</f>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="M10" s="26">
+        <f>LN(F10)*$C$24+$C$25</f>
+        <v>80</v>
+      </c>
+      <c r="N10" s="26">
+        <v>2500</v>
+      </c>
+      <c r="O10" s="34">
+        <f>SUM(I10,L10,M10,)</f>
+        <v>2002.30782241304</v>
+      </c>
+      <c r="P10" s="35">
+        <f>O10+2500</f>
+        <v>4502.30782241304</v>
+      </c>
+    </row>
+    <row r="11" ht="20.1" customHeight="1" spans="8:18">
+      <c r="H11" s="22">
+        <f>SUM(G6:G10)</f>
+        <v>2756.42655638577</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22">
+        <f>SUM(J6:J10)</f>
+        <v>5375.27840768417</v>
+      </c>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22">
+        <f>SUM(M6:M10)</f>
+        <v>815.888308335967</v>
+      </c>
+      <c r="O11" s="22">
+        <f>SUM(O6:O10)</f>
+        <v>11529.3822534837</v>
+      </c>
+      <c r="P11" s="22">
+        <f>SUM(P6:P10)</f>
+        <v>24029.3822534837</v>
+      </c>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+    </row>
+    <row r="12" hidden="1" spans="17:18">
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+    </row>
+    <row r="13" hidden="1"/>
+    <row r="14" ht="18" hidden="1" customHeight="1" spans="1:16">
+      <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="H14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="36" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" ht="18" hidden="1" customHeight="1" spans="1:16">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7">
+        <v>1</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1800</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <f t="shared" ref="H15:H19" si="0">$C$40*LN(C15+$C$41)</f>
+        <v>5996.87787614076</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="28">
+        <f>$C$36*POWER((B15+$C$37),$C$35)</f>
+        <v>1100</v>
+      </c>
+      <c r="L15" s="28"/>
+      <c r="M15" s="28"/>
+      <c r="N15" s="19">
+        <f t="shared" ref="N15:N19" si="1">LN(G15)*$C$24+$C$25</f>
+        <v>80</v>
+      </c>
+      <c r="O15" s="19"/>
+      <c r="P15" s="34">
+        <f>SUM(H15,K15,N15)</f>
+        <v>7176.87787614076</v>
+      </c>
+    </row>
+    <row r="16" ht="18" hidden="1" customHeight="1" spans="1:16">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1200</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="0"/>
+        <v>5672.72785766399</v>
+      </c>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="28">
+        <f>$C$36*POWER((B16+$C$37),$C$35)</f>
+        <v>1100</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="O16" s="19"/>
+      <c r="P16" s="34">
+        <f>SUM(H16,K16,N16)</f>
+        <v>6852.72785766399</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:16">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="20">
+        <v>1</v>
+      </c>
+      <c r="H17" s="23">
+        <f t="shared" si="0"/>
+        <v>6405.36067635229</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="28">
+        <f>$C$36*POWER((B17+$C$37),$C$35)</f>
+        <v>1385.91315488436</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="23">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="34">
+        <f>SUM(H17,K17,N17)</f>
+        <v>7871.27383123665</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="18" hidden="1" customHeight="1" spans="1:21">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="20">
+        <v>1</v>
+      </c>
+      <c r="H18" s="19">
+        <f t="shared" si="0"/>
+        <v>1287.55032994728</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="28">
+        <f>$C$36*POWER((B18+$C$37),$C$35)</f>
+        <v>1746.14115716502</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="O18" s="19"/>
+      <c r="P18" s="34">
+        <f>SUM(H18,K18,N18)</f>
+        <v>3113.6914871123</v>
+      </c>
+      <c r="R18" s="2" t="str">
+        <f>"a="&amp;C40</f>
+        <v>a=800</v>
+      </c>
+      <c r="S18" s="2" t="str">
+        <f>"b="&amp;C36</f>
+        <v>b=1100</v>
+      </c>
+      <c r="T18" s="2" t="str">
+        <f>"c="&amp;C24</f>
+        <v>c=600</v>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f>"d="&amp;C25</f>
+        <v>d=80</v>
+      </c>
+    </row>
+    <row r="19" ht="18" hidden="1" customHeight="1" spans="1:21">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7">
         <v>5</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="6">
+      <c r="C19" s="7">
+        <v>3000</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="H19" s="19">
+        <f t="shared" si="0"/>
+        <v>6405.36067635229</v>
+      </c>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="28">
+        <f>$C$36*POWER((B19+$C$37),$C$35)</f>
+        <v>1880.97354134437</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="O19" s="19"/>
+      <c r="P19" s="34">
+        <f>SUM(H19,K19,N19)</f>
+        <v>8366.33421769666</v>
+      </c>
+      <c r="R19" s="2" t="str">
+        <f>"x="&amp;C41</f>
+        <v>x=1</v>
+      </c>
+      <c r="S19" s="2" t="str">
+        <f>"y="&amp;C37</f>
+        <v>y=0</v>
+      </c>
+      <c r="T19" s="2" t="str">
+        <f>"q="&amp;1/C35</f>
+        <v>q=3</v>
+      </c>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" hidden="1" spans="6:11">
+      <c r="F20" s="22">
+        <f>SUM(H15:H19)</f>
+        <v>25767.8774164566</v>
+      </c>
+      <c r="G20" s="22">
+        <f>SUM(K15:K19)</f>
+        <v>7213.02785339375</v>
+      </c>
+      <c r="H20" s="22">
+        <f>SUM(N15:N19)</f>
+        <v>400</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22">
+        <f>SUM(P15:P19)</f>
+        <v>33380.9052698504</v>
+      </c>
+    </row>
+    <row r="21" hidden="1"/>
+    <row r="23" ht="33" customHeight="1" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="11">
+        <v>600</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3</v>
+      </c>
+      <c r="G24" s="24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="24">
+        <v>5</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="11">
+        <v>80</v>
+      </c>
+      <c r="D25" s="12">
+        <f>$C$24*LN(D24)+$C$25</f>
+        <v>80</v>
+      </c>
+      <c r="E25" s="12">
+        <f>$C$24*LN(E24)+$C$25</f>
+        <v>495.888308335967</v>
+      </c>
+      <c r="F25" s="12">
+        <f>$C$24*LN(F24)+$C$25</f>
+        <v>739.167373200866</v>
+      </c>
+      <c r="G25" s="12">
+        <f>$C$24*LN(G24)+$C$25</f>
+        <v>911.776616671934</v>
+      </c>
+      <c r="H25" s="12">
+        <f>$C$24*LN(H24)+$C$25</f>
+        <v>1045.66274746046</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1000</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>4</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="6"/>
+      <c r="B29" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="11">
+        <v>2</v>
+      </c>
+      <c r="D29" s="12">
+        <f>LN(D28+$C$29)*$C$28</f>
+        <v>1098.61228866811</v>
+      </c>
+      <c r="E29" s="12">
+        <f>LN(E28+$C$29)*$C$28</f>
+        <v>1386.29436111989</v>
+      </c>
+      <c r="F29" s="12">
+        <f>LN(F28+$C$29)*$C$28</f>
+        <v>1609.4379124341</v>
+      </c>
+      <c r="G29" s="12">
+        <f>LN(G28+$C$29)*$C$28</f>
+        <v>1791.75946922805</v>
+      </c>
+      <c r="H29" s="12">
+        <f>LN(H28+$C$29)*$C$28</f>
+        <v>1945.91014905531</v>
+      </c>
+      <c r="J29" s="30">
+        <f>H29/D29</f>
+        <v>1.77124374916142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="6"/>
+      <c r="B30" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="11">
+        <v>700</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="J30" s="30"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="6"/>
+      <c r="B31" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="J31" s="30"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="6"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="J32" s="30"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="16"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="17">
+        <f>1/3</f>
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="10"/>
+      <c r="B36" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="11">
+        <v>1100</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
+      <c r="E36" s="7">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="7">
+        <v>5</v>
+      </c>
+      <c r="J36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="10"/>
+      <c r="B37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0</v>
+      </c>
+      <c r="D37" s="12">
+        <f t="shared" ref="D37:H37" si="2">POWER(D36,$C$35)*$C$36</f>
+        <v>1100</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="2"/>
+        <v>1385.91315488436</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="2"/>
+        <v>1586.47452733815</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="2"/>
+        <v>1746.14115716502</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="2"/>
+        <v>1880.97354134437</v>
+      </c>
+      <c r="J37" s="30">
+        <f>H37/D37</f>
+        <v>1.7099759466767</v>
+      </c>
+    </row>
+    <row r="38" spans="10:10">
+      <c r="J38" s="31"/>
+    </row>
+    <row r="39" spans="10:10">
+      <c r="J39" s="31"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="11">
+        <v>800</v>
+      </c>
+      <c r="D40" s="7">
+        <v>10</v>
+      </c>
+      <c r="E40" s="7">
+        <v>20</v>
+      </c>
+      <c r="F40" s="7">
+        <v>30</v>
+      </c>
+      <c r="G40" s="7">
+        <v>50</v>
+      </c>
+      <c r="H40" s="7">
+        <v>100</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="10"/>
+      <c r="B41" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" s="12">
+        <f>LN(D40+$C$41)*$C$40</f>
+        <v>1918.3162182387</v>
+      </c>
+      <c r="E41" s="12">
+        <f>LN(E40+$C$41)*$C$40</f>
+        <v>2435.61795017874</v>
+      </c>
+      <c r="F41" s="12">
+        <f>LN(F40+$C$41)*$C$40</f>
+        <v>2747.18976358812</v>
+      </c>
+      <c r="G41" s="12">
+        <f>LN(G40+$C$41)*$C$40</f>
+        <v>3145.46050617946</v>
+      </c>
+      <c r="H41" s="12">
+        <f>LN(H40+$C$41)*$C$40</f>
+        <v>3692.09641347301</v>
+      </c>
+      <c r="J41" s="30">
+        <f>E47/D41</f>
+        <v>3.33905360099253</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="10"/>
+      <c r="B42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="10"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7">
+        <v>200</v>
+      </c>
+      <c r="E43" s="7">
+        <v>500</v>
+      </c>
+      <c r="F43" s="7">
+        <v>600</v>
+      </c>
+      <c r="G43" s="7">
+        <v>800</v>
+      </c>
+      <c r="H43" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="12">
+        <f>LN(D43+$C$41)*$C$40</f>
+        <v>4242.64392644726</v>
+      </c>
+      <c r="E44" s="12">
+        <f>LN(E43+$C$41)*$C$40</f>
+        <v>4973.28488086789</v>
+      </c>
+      <c r="F44" s="12">
+        <f>LN(F43+$C$41)*$C$40</f>
+        <v>5118.87594762817</v>
+      </c>
+      <c r="G44" s="12">
+        <f>LN(G43+$C$41)*$C$40</f>
+        <v>5348.68875765469</v>
+      </c>
+      <c r="H44" s="12">
+        <f>LN(H43+$C$41)*$C$40</f>
+        <v>5527.00382345218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="10"/>
+      <c r="B45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="11">
+        <v>400</v>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="10"/>
+      <c r="B46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7">
         <v>2000</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <f>$C$35*LN(C4+$C$36)</f>
-        <v>3087.4741980793865</v>
-      </c>
-      <c r="F4" s="12">
-        <f>$C$26*LN(B4+$C$27)</f>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="G4" s="12">
-        <f>LN(D4)*$C$22+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="H4" s="13">
-        <f>SUM(E4,F4,G4)</f>
-        <v>3880.6213786393319</v>
-      </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <f>$C$35*LN(C5+$C$36)</f>
-        <v>2852.3595321185385</v>
-      </c>
-      <c r="F5" s="12">
-        <f>$C$26*LN(B5+$C$27)</f>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="G5" s="12">
-        <f>LN(D5)*$C$22+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="H5" s="13">
-        <f>SUM(E5,F5,G5)</f>
-        <v>3645.5067126784838</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="E46" s="7">
         <v>3000</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="14">
-        <f>$C$35*LN(C6+$C$36)</f>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F6" s="14">
-        <f>$C$26*LN(B6+$C$27)</f>
-        <v>1098.6122886681098</v>
-      </c>
-      <c r="G6" s="14">
-        <f>LN(D6)*$C$22+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="H6" s="13">
-        <f>SUM(E6,F6,G6)</f>
-        <v>4433.1763987976228</v>
-      </c>
-      <c r="J6" s="21" t="str">
-        <f>"a="&amp;C35</f>
-        <v>a=400</v>
-      </c>
-      <c r="K6" s="21" t="str">
-        <f>"b="&amp;C26</f>
-        <v>b=1000</v>
-      </c>
-      <c r="L6" s="21" t="str">
-        <f>"c="&amp;C22</f>
-        <v>c=820</v>
-      </c>
-      <c r="M6" s="21" t="str">
-        <f>"d="&amp;C23</f>
-        <v>d=100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <f>$C$35*LN(C7+$C$36)</f>
-        <v>2214.9337068074146</v>
-      </c>
-      <c r="F7" s="12">
-        <f>$C$26*LN(B7+$C$27)</f>
-        <v>1609.4379124341003</v>
-      </c>
-      <c r="G7" s="12">
-        <f>LN(D7)*$C$22+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="H7" s="13">
-        <f>SUM(E7,F7,G7)</f>
-        <v>3924.371619241515</v>
-      </c>
-      <c r="J7" s="21" t="str">
-        <f>"x="&amp;C36</f>
-        <v>x=250</v>
-      </c>
-      <c r="K7" s="21" t="str">
-        <f>"y="&amp;C27</f>
-        <v>y=1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6">
-        <v>3000</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
-        <f>$C$35*LN(C8+$C$36)</f>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F8" s="12">
-        <f>$C$26*LN(B8+$C$27)</f>
-        <v>1791.759469228055</v>
-      </c>
-      <c r="G8" s="12">
-        <f>LN(D8)*$C$22+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="H8" s="13">
-        <f>SUM(E8,F8,G8)</f>
-        <v>5126.3235793575677</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="20.100000000000001" customHeight="1">
-      <c r="E9" s="15">
-        <f>SUM(E4:E8)</f>
-        <v>14623.895657264366</v>
-      </c>
-      <c r="F9" s="15">
-        <f>SUM(F4:F8)</f>
-        <v>5886.1040314501552</v>
-      </c>
-      <c r="G9" s="15">
-        <f>SUM(G4:G8)</f>
-        <v>500</v>
-      </c>
-      <c r="H9" s="15">
-        <f>SUM(H4:H8)</f>
-        <v>21009.999688714524</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-    </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1">
-      <c r="A12" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <f t="shared" ref="E13:E17" si="0">$C$35*LN(C13+$C$36)</f>
-        <v>3087.4741980793865</v>
-      </c>
-      <c r="F13" s="18">
-        <f>$C$31*POWER((B13+$C$32),$C$30)</f>
-        <v>1100</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" ref="G13:G17" si="1">LN(D13)*$C$22+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="H13" s="13">
-        <f>SUM(E13,F13,G13)</f>
-        <v>4287.474198079386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6">
-        <v>200</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="F14" s="18">
-        <f>$C$31*POWER((B14+$C$32),$C$30)</f>
-        <v>1385.9131548843604</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H14" s="13">
-        <f>SUM(E14,F14,G14)</f>
-        <v>3929.6121879901066</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="6">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1200</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
-        <f t="shared" si="0"/>
-        <v>2911.7275341658478</v>
-      </c>
-      <c r="F15" s="18">
-        <f>$C$31*POWER((B15+$C$32),$C$30)</f>
-        <v>1586.4745273381491</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H15" s="13">
-        <f>SUM(E15,F15,G15)</f>
-        <v>4598.2020615039964</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" s="21" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="6">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6">
-        <v>4</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12">
-        <f t="shared" si="0"/>
-        <v>2214.9337068074146</v>
-      </c>
-      <c r="F16" s="18">
-        <f>$C$31*POWER((B16+$C$32),$C$30)</f>
-        <v>1746.1411571650192</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="13">
-        <f>SUM(E16,F16,G16)</f>
-        <v>4061.0748639724338</v>
-      </c>
-      <c r="J16" s="21" t="str">
-        <f>"a="&amp;C35</f>
-        <v>a=400</v>
-      </c>
-      <c r="K16" s="21" t="str">
-        <f>"b="&amp;C31</f>
-        <v>b=1100</v>
-      </c>
-      <c r="L16" s="21" t="str">
-        <f>"c="&amp;C22</f>
-        <v>c=820</v>
-      </c>
-      <c r="M16" s="21" t="str">
-        <f>"d="&amp;C23</f>
-        <v>d=100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="6">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6">
-        <v>3000</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
-        <f t="shared" si="0"/>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F17" s="18">
-        <f>$C$31*POWER((B17+$C$32),$C$30)</f>
-        <v>1880.9735413443666</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="13">
-        <f>SUM(E17,F17,G17)</f>
-        <v>5215.5376514738791</v>
-      </c>
-      <c r="J17" s="21" t="str">
-        <f>"x="&amp;C36</f>
-        <v>x=250</v>
-      </c>
-      <c r="K17" s="21" t="str">
-        <f>"y="&amp;C32</f>
-        <v>y=0</v>
-      </c>
-      <c r="L17" s="21" t="str">
-        <f>"q="&amp;1/C30</f>
-        <v>q=3</v>
-      </c>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="E18" s="15">
-        <f>SUM(E13:E17)</f>
-        <v>13892.398582287908</v>
-      </c>
-      <c r="F18" s="15">
-        <f>SUM(F13:F17)</f>
-        <v>7699.5023807318958</v>
-      </c>
-      <c r="G18" s="15">
-        <f>SUM(G13:G17)</f>
-        <v>500</v>
-      </c>
-      <c r="H18" s="15">
-        <f>SUM(H13:H17)</f>
-        <v>22091.900963019802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="33" customHeight="1">
-      <c r="A21" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="7">
-        <v>820</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>2</v>
-      </c>
-      <c r="F22" s="6">
-        <v>3</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="35"/>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="7">
-        <v>100</v>
-      </c>
-      <c r="D23" s="8">
-        <f>$C$22*LN(D22)+$C$23</f>
-        <v>100</v>
-      </c>
-      <c r="E23" s="8">
-        <f>$C$22*LN(E22)+$C$23</f>
-        <v>668.38068805915509</v>
-      </c>
-      <c r="F23" s="8">
-        <f>$C$22*LN(F22)+$C$23</f>
-        <v>1000.8620767078501</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>2</v>
-      </c>
-      <c r="F26" s="6">
-        <v>3</v>
-      </c>
-      <c r="G26" s="6">
-        <v>4</v>
-      </c>
-      <c r="H26" s="6">
-        <v>5</v>
-      </c>
-      <c r="J26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="35"/>
-      <c r="B27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="8">
-        <f>LN(D26+$C$27)*$C$26</f>
-        <v>693.14718055994524</v>
-      </c>
-      <c r="E27" s="8">
-        <f>LN(E26+$C$27)*$C$26</f>
-        <v>1098.6122886681098</v>
-      </c>
-      <c r="F27" s="8">
-        <f>LN(F26+$C$27)*$C$26</f>
-        <v>1386.2943611198905</v>
-      </c>
-      <c r="G27" s="8">
-        <f>LN(G26+$C$27)*$C$26</f>
-        <v>1609.4379124341003</v>
-      </c>
-      <c r="H27" s="8">
-        <f>LN(H26+$C$27)*$C$26</f>
-        <v>1791.759469228055</v>
-      </c>
-      <c r="J27" s="24">
-        <f>H27/D27</f>
-        <v>2.5849625007211565</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="9">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="35"/>
-      <c r="B31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="7">
-        <v>1100</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6">
-        <v>3</v>
-      </c>
-      <c r="G31" s="6">
-        <v>4</v>
-      </c>
-      <c r="H31" s="6">
-        <v>5</v>
-      </c>
-      <c r="J31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="35"/>
-      <c r="B32" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" ref="D32:H32" si="2">POWER(D31,$C$30)*$C$31</f>
-        <v>1100</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="2"/>
-        <v>1385.9131548843604</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="2"/>
-        <v>1586.4745273381491</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="2"/>
-        <v>1746.1411571650192</v>
-      </c>
-      <c r="H32" s="8">
-        <f t="shared" si="2"/>
-        <v>1880.9735413443666</v>
-      </c>
-      <c r="J32" s="24">
-        <f>H32/D32</f>
-        <v>1.7099759466766968</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="J33" s="25"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="J34" s="25"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" s="7">
-        <v>400</v>
-      </c>
-      <c r="D35" s="6">
-        <v>10</v>
-      </c>
-      <c r="E35" s="6">
-        <v>20</v>
-      </c>
-      <c r="F35" s="6">
-        <v>30</v>
-      </c>
-      <c r="G35" s="6">
-        <v>50</v>
-      </c>
-      <c r="H35" s="6">
-        <v>100</v>
-      </c>
-      <c r="J35" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="35"/>
-      <c r="B36" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="7">
-        <v>250</v>
-      </c>
-      <c r="D36" s="8">
-        <f>LN(D35+$C$36)*$C$35</f>
-        <v>2224.2726524062109</v>
-      </c>
-      <c r="E36" s="8">
-        <f>LN(E35+$C$36)*$C$35</f>
-        <v>2239.3687835993501</v>
-      </c>
-      <c r="F36" s="8">
-        <f>LN(F35+$C$36)*$C$35</f>
-        <v>2253.9158412676998</v>
-      </c>
-      <c r="G36" s="8">
-        <f>LN(G35+$C$36)*$C$35</f>
-        <v>2281.5129898624805</v>
-      </c>
-      <c r="H36" s="8">
-        <f>LN(H35+$C$36)*$C$35</f>
-        <v>2343.1732617933835</v>
-      </c>
-      <c r="J36" s="24">
-        <f>E42/D36</f>
-        <v>1.4542120574248718</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="35"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="35"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6">
-        <v>200</v>
-      </c>
-      <c r="E38" s="6">
-        <v>500</v>
-      </c>
-      <c r="F38" s="6">
-        <v>600</v>
-      </c>
-      <c r="G38" s="6">
-        <v>800</v>
-      </c>
-      <c r="H38" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="35"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8">
-        <f>LN(D38+$C$36)*$C$35</f>
-        <v>2443.6990331057464</v>
-      </c>
-      <c r="E39" s="8">
-        <f>LN(E38+$C$36)*$C$35</f>
-        <v>2648.0292826121422</v>
-      </c>
-      <c r="F39" s="8">
-        <f>LN(F38+$C$36)*$C$35</f>
-        <v>2698.0945397937448</v>
-      </c>
-      <c r="G39" s="8">
-        <f>LN(G38+$C$36)*$C$35</f>
-        <v>2782.6181772606278</v>
-      </c>
-      <c r="H39" s="8">
-        <f>LN(H38+$C$36)*$C$35</f>
-        <v>2852.3595321185385</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="35"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="35"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E41" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="35"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8">
-        <f>LN(D41+$C$36)*$C$35</f>
-        <v>3087.4741980793865</v>
-      </c>
-      <c r="E42" s="8">
-        <f>LN(E41+$C$36)*$C$35</f>
-        <v>3234.5641101295128</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10"/>
+      <c r="B47" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.001</v>
+      </c>
+      <c r="D47" s="12">
+        <f>LN(D46+$C$41)*$C$40</f>
+        <v>6081.12186766699</v>
+      </c>
+      <c r="E47" s="12">
+        <f>LN(E46+$C$41)*$C$40</f>
+        <v>6405.36067635229</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A35:A42"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="A40:A47"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="2" spans="1:6">
-      <c r="A2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="34" t="s">
-        <v>52</v>
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>